--- a/BackTest/2019-11-01 BackTest BHP.xlsx
+++ b/BackTest/2019-11-01 BackTest BHP.xlsx
@@ -836,20 +836,14 @@
         <v>1240.266666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1236</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,20 +871,14 @@
         <v>1240.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1238</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -925,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -964,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1003,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1042,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1081,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1120,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1159,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1198,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1237,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1315,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1354,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1432,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1471,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1503,20 +1431,14 @@
         <v>1238.466666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1228</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1544,20 +1466,14 @@
         <v>1238.133333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1229</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1585,20 +1501,14 @@
         <v>1237.766666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1231</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1626,20 +1536,14 @@
         <v>1237.533333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1227</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1667,20 +1571,14 @@
         <v>1237.266666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1227</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1708,20 +1606,14 @@
         <v>1236.983333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1228</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1749,20 +1641,14 @@
         <v>1236.783333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1225</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1790,20 +1676,14 @@
         <v>1236.633333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1228</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1831,20 +1711,14 @@
         <v>1236.516666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1230</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1872,20 +1746,14 @@
         <v>1236.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1228</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1913,20 +1781,14 @@
         <v>1236.25</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1228</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1954,20 +1816,14 @@
         <v>1236.016666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1227</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1995,20 +1851,14 @@
         <v>1235.85</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1229</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2036,20 +1886,14 @@
         <v>1235.783333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1235</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2077,20 +1921,14 @@
         <v>1235.683333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1233</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2118,20 +1956,14 @@
         <v>1235.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1232</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2159,20 +1991,14 @@
         <v>1235.5</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1232</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2200,20 +2026,14 @@
         <v>1235.45</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1232</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2241,20 +2061,14 @@
         <v>1235.35</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1232</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2282,20 +2096,14 @@
         <v>1235.183333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1233</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2330,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2362,20 +2166,14 @@
         <v>1234.816666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1232</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2403,20 +2201,14 @@
         <v>1234.633333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1232</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2444,20 +2236,14 @@
         <v>1234.516666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1233</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2485,20 +2271,14 @@
         <v>1234.4</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1235</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2526,20 +2306,14 @@
         <v>1234.333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1234</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2567,20 +2341,14 @@
         <v>1234.283333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1235</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2608,20 +2376,14 @@
         <v>1234.25</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1235</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2649,20 +2411,14 @@
         <v>1234.166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1233</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2690,20 +2446,14 @@
         <v>1234.116666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1236</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2731,20 +2481,14 @@
         <v>1234.033333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1239</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2772,20 +2516,14 @@
         <v>1233.916666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1240</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2813,20 +2551,14 @@
         <v>1233.916666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1242</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2939,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3407,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3875,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3992,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4187,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4265,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4304,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4339,16 +3919,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4376,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4411,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4481,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4691,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4726,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4761,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -10463,13 +10041,17 @@
         <v>1250.283333333333</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1238</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1238</v>
+      </c>
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
@@ -10498,14 +10080,22 @@
         <v>1250.1</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1238</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1238</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10533,14 +10123,22 @@
         <v>1249.85</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1238</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1238</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10568,13 +10166,17 @@
         <v>1249.633333333333</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1237</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1237</v>
+      </c>
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
@@ -10603,14 +10205,22 @@
         <v>1249.516666666667</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1240</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1237</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10644,8 +10254,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1237</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest BHP.xlsx
+++ b/BackTest/2019-11-01 BackTest BHP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="C2" t="n">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="D2" t="n">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="E2" t="n">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="F2" t="n">
-        <v>65.59999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="G2" t="n">
-        <v>1236.95</v>
+        <v>1236.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C3" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D3" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E3" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1237.45</v>
+        <v>1236.95</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="C4" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="D4" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="E4" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="G4" t="n">
-        <v>1237.85</v>
+        <v>1237.45</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C5" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D5" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="E5" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="F5" t="n">
-        <v>450</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>1238.116666666667</v>
+        <v>1237.85</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C6" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D6" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E6" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2329</v>
+        <v>450</v>
       </c>
       <c r="G6" t="n">
-        <v>1238.383333333333</v>
+        <v>1238.116666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>1233</v>
       </c>
       <c r="C7" t="n">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D7" t="n">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E7" t="n">
         <v>1233</v>
       </c>
       <c r="F7" t="n">
-        <v>1078.34590258</v>
+        <v>0.2329</v>
       </c>
       <c r="G7" t="n">
-        <v>1238.666666666667</v>
+        <v>1238.383333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C8" t="n">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D8" t="n">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E8" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>1078.34590258</v>
       </c>
       <c r="G8" t="n">
-        <v>1238.95</v>
+        <v>1238.666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,31 +678,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C9" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D9" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E9" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F9" t="n">
-        <v>120.2205</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>1239.25</v>
+        <v>1238.95</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1236</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1236</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -716,19 +720,19 @@
         <v>1233</v>
       </c>
       <c r="C10" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D10" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="E10" t="n">
         <v>1233</v>
       </c>
       <c r="F10" t="n">
-        <v>32.9</v>
+        <v>120.2205</v>
       </c>
       <c r="G10" t="n">
-        <v>1239.55</v>
+        <v>1239.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +741,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,32 +758,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C11" t="n">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D11" t="n">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E11" t="n">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F11" t="n">
-        <v>380</v>
+        <v>32.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1239.783333333333</v>
+        <v>1239.55</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1235</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,32 +801,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C12" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D12" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E12" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F12" t="n">
-        <v>65.59999999999999</v>
+        <v>380</v>
       </c>
       <c r="G12" t="n">
-        <v>1240</v>
+        <v>1239.783333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1233</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +844,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1232</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1232</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1232</v>
+      </c>
+      <c r="F13" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1240</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>1236</v>
       </c>
-      <c r="C13" t="n">
-        <v>1238</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1236</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1644</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1240.266666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C14" t="n">
         <v>1238</v>
@@ -862,23 +894,31 @@
         <v>1238</v>
       </c>
       <c r="E14" t="n">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F14" t="n">
-        <v>326.0896</v>
+        <v>1644</v>
       </c>
       <c r="G14" t="n">
-        <v>1240.5</v>
+        <v>1240.266666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1232</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +940,10 @@
         <v>1238</v>
       </c>
       <c r="F15" t="n">
-        <v>134.0843</v>
+        <v>326.0896</v>
       </c>
       <c r="G15" t="n">
-        <v>1240.7</v>
+        <v>1240.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +952,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +969,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C16" t="n">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="D16" t="n">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="E16" t="n">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F16" t="n">
-        <v>1672</v>
+        <v>134.0843</v>
       </c>
       <c r="G16" t="n">
-        <v>1240.966666666667</v>
+        <v>1240.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +993,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1010,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C17" t="n">
         <v>1242</v>
       </c>
-      <c r="C17" t="n">
-        <v>1243</v>
-      </c>
       <c r="D17" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E17" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F17" t="n">
-        <v>1090.4794</v>
+        <v>1672</v>
       </c>
       <c r="G17" t="n">
-        <v>1241.216666666667</v>
+        <v>1240.966666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1034,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C18" t="n">
         <v>1243</v>
@@ -1002,13 +1060,13 @@
         <v>1243</v>
       </c>
       <c r="E18" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F18" t="n">
-        <v>32.8</v>
+        <v>1090.4794</v>
       </c>
       <c r="G18" t="n">
-        <v>1241.35</v>
+        <v>1241.216666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1075,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1092,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C19" t="n">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D19" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E19" t="n">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F19" t="n">
-        <v>690.169</v>
+        <v>32.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1241.366666666667</v>
+        <v>1241.35</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1116,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1133,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C20" t="n">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D20" t="n">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="E20" t="n">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F20" t="n">
-        <v>32.8</v>
+        <v>690.169</v>
       </c>
       <c r="G20" t="n">
-        <v>1241.283333333333</v>
+        <v>1241.366666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1157,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1177,19 @@
         <v>1239</v>
       </c>
       <c r="C21" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D21" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E21" t="n">
         <v>1239</v>
       </c>
       <c r="F21" t="n">
-        <v>1248.5</v>
+        <v>32.8</v>
       </c>
       <c r="G21" t="n">
-        <v>1241.216666666667</v>
+        <v>1241.283333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1198,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1215,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C22" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D22" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E22" t="n">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2085</v>
+        <v>1248.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1241.05</v>
+        <v>1241.216666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1239,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="C23" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="D23" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E23" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="F23" t="n">
-        <v>49.2</v>
+        <v>0.2085</v>
       </c>
       <c r="G23" t="n">
-        <v>1240.766666666667</v>
+        <v>1241.05</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1280,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1297,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="C24" t="n">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="D24" t="n">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="E24" t="n">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="F24" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1240.4</v>
+        <v>1240.766666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1321,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1338,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="C25" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D25" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="E25" t="n">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="F25" t="n">
-        <v>1209.5</v>
+        <v>49.3</v>
       </c>
       <c r="G25" t="n">
-        <v>1240.116666666667</v>
+        <v>1240.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1362,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1379,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C26" t="n">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D26" t="n">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E26" t="n">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>1209.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1239.9</v>
+        <v>1240.116666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1403,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1311,19 +1423,19 @@
         <v>1234</v>
       </c>
       <c r="C27" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D27" t="n">
         <v>1234</v>
       </c>
       <c r="E27" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F27" t="n">
-        <v>98.5</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>1239.65</v>
+        <v>1239.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1444,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1461,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="C28" t="n">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="D28" t="n">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="E28" t="n">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="F28" t="n">
-        <v>8.6</v>
+        <v>98.5</v>
       </c>
       <c r="G28" t="n">
-        <v>1239.283333333333</v>
+        <v>1239.65</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1485,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1505,19 @@
         <v>1225</v>
       </c>
       <c r="C29" t="n">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D29" t="n">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E29" t="n">
         <v>1225</v>
       </c>
       <c r="F29" t="n">
-        <v>166</v>
+        <v>8.6</v>
       </c>
       <c r="G29" t="n">
-        <v>1238.9</v>
+        <v>1239.283333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1526,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1543,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C30" t="n">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D30" t="n">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E30" t="n">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F30" t="n">
-        <v>694.6</v>
+        <v>166</v>
       </c>
       <c r="G30" t="n">
-        <v>1238.466666666667</v>
+        <v>1238.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1567,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,7 +1584,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C31" t="n">
         <v>1229</v>
@@ -1457,13 +1593,13 @@
         <v>1229</v>
       </c>
       <c r="E31" t="n">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F31" t="n">
-        <v>950.5586</v>
+        <v>694.6</v>
       </c>
       <c r="G31" t="n">
-        <v>1238.133333333333</v>
+        <v>1238.466666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1608,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1625,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C32" t="n">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D32" t="n">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E32" t="n">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F32" t="n">
-        <v>831</v>
+        <v>950.5586</v>
       </c>
       <c r="G32" t="n">
-        <v>1237.766666666667</v>
+        <v>1238.133333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1649,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1666,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="C33" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D33" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="E33" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="F33" t="n">
-        <v>176</v>
+        <v>831</v>
       </c>
       <c r="G33" t="n">
-        <v>1237.533333333333</v>
+        <v>1237.766666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1690,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1710,19 @@
         <v>1227</v>
       </c>
       <c r="C34" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D34" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E34" t="n">
         <v>1227</v>
       </c>
       <c r="F34" t="n">
-        <v>414.6</v>
+        <v>176</v>
       </c>
       <c r="G34" t="n">
-        <v>1237.266666666667</v>
+        <v>1237.533333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1731,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,7 +1748,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C35" t="n">
         <v>1228</v>
@@ -1597,13 +1757,13 @@
         <v>1228</v>
       </c>
       <c r="E35" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F35" t="n">
-        <v>73.8</v>
+        <v>414.6</v>
       </c>
       <c r="G35" t="n">
-        <v>1236.983333333333</v>
+        <v>1237.266666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1772,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1789,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C36" t="n">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D36" t="n">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E36" t="n">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="F36" t="n">
-        <v>600</v>
+        <v>73.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1236.783333333333</v>
+        <v>1236.983333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1830,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C37" t="n">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="D37" t="n">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E37" t="n">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F37" t="n">
-        <v>248.8</v>
+        <v>600</v>
       </c>
       <c r="G37" t="n">
-        <v>1236.633333333333</v>
+        <v>1236.783333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1854,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,7 +1871,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C38" t="n">
         <v>1230</v>
@@ -1702,13 +1880,13 @@
         <v>1230</v>
       </c>
       <c r="E38" t="n">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1</v>
+        <v>248.8</v>
       </c>
       <c r="G38" t="n">
-        <v>1236.516666666667</v>
+        <v>1236.633333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1912,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C39" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D39" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E39" t="n">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="F39" t="n">
-        <v>666.2</v>
+        <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>1236.4</v>
+        <v>1236.516666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1956,19 @@
         <v>1228</v>
       </c>
       <c r="C40" t="n">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D40" t="n">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E40" t="n">
         <v>1228</v>
       </c>
       <c r="F40" t="n">
-        <v>73.90000000000001</v>
+        <v>666.2</v>
       </c>
       <c r="G40" t="n">
-        <v>1236.25</v>
+        <v>1236.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1994,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C41" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D41" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E41" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F41" t="n">
-        <v>275.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>1236.016666666667</v>
+        <v>1236.25</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +2035,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C42" t="n">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D42" t="n">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E42" t="n">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F42" t="n">
-        <v>450.9</v>
+        <v>275.1</v>
       </c>
       <c r="G42" t="n">
-        <v>1235.85</v>
+        <v>1236.016666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2059,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,32 +2076,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C43" t="n">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D43" t="n">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E43" t="n">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F43" t="n">
-        <v>391</v>
+        <v>450.9</v>
       </c>
       <c r="G43" t="n">
-        <v>1235.783333333333</v>
+        <v>1235.85</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1227</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,32 +2119,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C44" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D44" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="E44" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F44" t="n">
-        <v>24.6</v>
+        <v>391</v>
       </c>
       <c r="G44" t="n">
-        <v>1235.683333333333</v>
+        <v>1235.783333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1230</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2162,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C45" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D45" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E45" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F45" t="n">
         <v>24.6</v>
       </c>
       <c r="G45" t="n">
-        <v>1235.6</v>
+        <v>1235.683333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2215,10 @@
         <v>1232</v>
       </c>
       <c r="F46" t="n">
-        <v>293</v>
+        <v>24.6</v>
       </c>
       <c r="G46" t="n">
-        <v>1235.5</v>
+        <v>1235.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2256,10 @@
         <v>1232</v>
       </c>
       <c r="F47" t="n">
-        <v>485</v>
+        <v>293</v>
       </c>
       <c r="G47" t="n">
-        <v>1235.45</v>
+        <v>1235.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2268,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2297,10 @@
         <v>1232</v>
       </c>
       <c r="F48" t="n">
-        <v>2611.2107</v>
+        <v>485</v>
       </c>
       <c r="G48" t="n">
-        <v>1235.35</v>
+        <v>1235.45</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2309,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2326,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C49" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D49" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E49" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F49" t="n">
-        <v>61.6</v>
+        <v>2611.2107</v>
       </c>
       <c r="G49" t="n">
-        <v>1235.183333333333</v>
+        <v>1235.35</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2350,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2367,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C50" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D50" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E50" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F50" t="n">
-        <v>30.8</v>
+        <v>61.6</v>
       </c>
       <c r="G50" t="n">
-        <v>1235.066666666667</v>
+        <v>1235.183333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2391,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2408,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C51" t="n">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D51" t="n">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="E51" t="n">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F51" t="n">
-        <v>597</v>
+        <v>30.8</v>
       </c>
       <c r="G51" t="n">
-        <v>1234.816666666667</v>
+        <v>1235.066666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2461,10 @@
         <v>1232</v>
       </c>
       <c r="F52" t="n">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="G52" t="n">
-        <v>1234.633333333333</v>
+        <v>1234.816666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2473,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2490,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C53" t="n">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D53" t="n">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E53" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F53" t="n">
-        <v>277.8</v>
+        <v>630</v>
       </c>
       <c r="G53" t="n">
-        <v>1234.516666666667</v>
+        <v>1234.633333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2514,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2531,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C54" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D54" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E54" t="n">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>277.8</v>
       </c>
       <c r="G54" t="n">
-        <v>1234.4</v>
+        <v>1234.516666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2555,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2572,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C55" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D55" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E55" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F55" t="n">
-        <v>36.9</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>1234.333333333333</v>
+        <v>1234.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2613,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C56" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D56" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E56" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F56" t="n">
         <v>36.9</v>
       </c>
       <c r="G56" t="n">
-        <v>1234.283333333333</v>
+        <v>1234.333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2637,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2666,10 @@
         <v>1235</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7781</v>
+        <v>36.9</v>
       </c>
       <c r="G57" t="n">
-        <v>1234.25</v>
+        <v>1234.283333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2678,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2695,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C58" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D58" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="E58" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F58" t="n">
-        <v>270</v>
+        <v>0.7781</v>
       </c>
       <c r="G58" t="n">
-        <v>1234.166666666667</v>
+        <v>1234.25</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2719,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,32 +2736,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1233</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F59" t="n">
+        <v>270</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1234.166666666667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
         <v>1236</v>
       </c>
-      <c r="C59" t="n">
-        <v>1238</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1236</v>
-      </c>
-      <c r="F59" t="n">
-        <v>780.8674999999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1234.116666666667</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2777,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C60" t="n">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D60" t="n">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E60" t="n">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F60" t="n">
-        <v>278</v>
+        <v>780.8674999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>1234.033333333333</v>
+        <v>1234.116666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2801,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2818,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C61" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D61" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E61" t="n">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F61" t="n">
-        <v>220.2302</v>
+        <v>278</v>
       </c>
       <c r="G61" t="n">
-        <v>1233.916666666667</v>
+        <v>1234.033333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2842,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,19 +2859,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C62" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D62" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E62" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F62" t="n">
-        <v>5.0822</v>
+        <v>220.2302</v>
       </c>
       <c r="G62" t="n">
         <v>1233.916666666667</v>
@@ -2557,8 +2883,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2900,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C63" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D63" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E63" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F63" t="n">
-        <v>2828.7534</v>
+        <v>5.0822</v>
       </c>
       <c r="G63" t="n">
-        <v>1233.983333333333</v>
+        <v>1233.916666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2924,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2941,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C64" t="n">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D64" t="n">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E64" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F64" t="n">
-        <v>1404.1354</v>
+        <v>2828.7534</v>
       </c>
       <c r="G64" t="n">
-        <v>1234.166666666667</v>
+        <v>1233.983333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2965,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C65" t="n">
         <v>1246</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1245</v>
       </c>
       <c r="D65" t="n">
         <v>1246</v>
       </c>
       <c r="E65" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F65" t="n">
-        <v>720.7027</v>
+        <v>1404.1354</v>
       </c>
       <c r="G65" t="n">
-        <v>1234.383333333333</v>
+        <v>1234.166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +3006,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,34 +3023,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C66" t="n">
         <v>1245</v>
       </c>
       <c r="D66" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E66" t="n">
         <v>1245</v>
       </c>
       <c r="F66" t="n">
-        <v>115.0974</v>
+        <v>720.7027</v>
       </c>
       <c r="G66" t="n">
-        <v>1234.583333333333</v>
+        <v>1234.383333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1236</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>1.002281553398058</v>
       </c>
     </row>
     <row r="67">
@@ -2720,16 +3076,16 @@
         <v>1245</v>
       </c>
       <c r="F67" t="n">
-        <v>980</v>
+        <v>115.0974</v>
       </c>
       <c r="G67" t="n">
-        <v>1234.733333333333</v>
+        <v>1234.583333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2755,10 +3111,10 @@
         <v>1245</v>
       </c>
       <c r="F68" t="n">
-        <v>67.7</v>
+        <v>980</v>
       </c>
       <c r="G68" t="n">
-        <v>1234.916666666667</v>
+        <v>1234.733333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +3134,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C69" t="n">
         <v>1245</v>
@@ -2787,13 +3143,13 @@
         <v>1245</v>
       </c>
       <c r="E69" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F69" t="n">
-        <v>400</v>
+        <v>67.7</v>
       </c>
       <c r="G69" t="n">
-        <v>1235.083333333333</v>
+        <v>1234.916666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +3169,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C70" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D70" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E70" t="n">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F70" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G70" t="n">
-        <v>1235.25</v>
+        <v>1235.083333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +3204,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C71" t="n">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D71" t="n">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E71" t="n">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F71" t="n">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="G71" t="n">
-        <v>1235.516666666667</v>
+        <v>1235.25</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +3239,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C72" t="n">
         <v>1247</v>
@@ -2892,13 +3248,13 @@
         <v>1247</v>
       </c>
       <c r="E72" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F72" t="n">
-        <v>830.8</v>
+        <v>203</v>
       </c>
       <c r="G72" t="n">
-        <v>1235.766666666667</v>
+        <v>1235.516666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +3286,10 @@
         <v>1247</v>
       </c>
       <c r="F73" t="n">
-        <v>23.9494</v>
+        <v>830.8</v>
       </c>
       <c r="G73" t="n">
-        <v>1235.916666666667</v>
+        <v>1235.766666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3309,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C74" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D74" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E74" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F74" t="n">
-        <v>42.7003</v>
+        <v>23.9494</v>
       </c>
       <c r="G74" t="n">
-        <v>1236.033333333333</v>
+        <v>1235.916666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,19 +3344,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="C75" t="n">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="D75" t="n">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="E75" t="n">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="F75" t="n">
-        <v>32.3</v>
+        <v>42.7003</v>
       </c>
       <c r="G75" t="n">
         <v>1236.033333333333</v>
@@ -3026,19 +3382,19 @@
         <v>1238</v>
       </c>
       <c r="C76" t="n">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D76" t="n">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E76" t="n">
         <v>1238</v>
       </c>
       <c r="F76" t="n">
-        <v>332.3</v>
+        <v>32.3</v>
       </c>
       <c r="G76" t="n">
-        <v>1236.016666666667</v>
+        <v>1236.033333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3414,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="C77" t="n">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D77" t="n">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E77" t="n">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="F77" t="n">
-        <v>33.1</v>
+        <v>332.3</v>
       </c>
       <c r="G77" t="n">
-        <v>1236.033333333333</v>
+        <v>1236.016666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3449,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C78" t="n">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D78" t="n">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="E78" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F78" t="n">
-        <v>1297</v>
+        <v>33.1</v>
       </c>
       <c r="G78" t="n">
-        <v>1236.116666666667</v>
+        <v>1236.033333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3484,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C79" t="n">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="D79" t="n">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="E79" t="n">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="F79" t="n">
-        <v>8.7782</v>
+        <v>1297</v>
       </c>
       <c r="G79" t="n">
-        <v>1236.133333333333</v>
+        <v>1236.116666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3519,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C80" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D80" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E80" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F80" t="n">
-        <v>74.94889999999999</v>
+        <v>8.7782</v>
       </c>
       <c r="G80" t="n">
-        <v>1236.2</v>
+        <v>1236.133333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3554,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C81" t="n">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D81" t="n">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E81" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F81" t="n">
-        <v>233.1</v>
+        <v>74.94889999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>1236.283333333333</v>
+        <v>1236.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3589,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C82" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D82" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E82" t="n">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F82" t="n">
-        <v>598.1</v>
+        <v>233.1</v>
       </c>
       <c r="G82" t="n">
-        <v>1236.35</v>
+        <v>1236.283333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3624,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C83" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D83" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E83" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F83" t="n">
-        <v>107</v>
+        <v>598.1</v>
       </c>
       <c r="G83" t="n">
-        <v>1236.45</v>
+        <v>1236.35</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3659,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C84" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D84" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E84" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="F84" t="n">
-        <v>66.2</v>
+        <v>107</v>
       </c>
       <c r="G84" t="n">
-        <v>1236.583333333333</v>
+        <v>1236.45</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3694,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C85" t="n">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="D85" t="n">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E85" t="n">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="F85" t="n">
-        <v>468.2436</v>
+        <v>66.2</v>
       </c>
       <c r="G85" t="n">
-        <v>1236.716666666667</v>
+        <v>1236.583333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3729,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C86" t="n">
         <v>1240</v>
       </c>
       <c r="D86" t="n">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E86" t="n">
         <v>1240</v>
       </c>
       <c r="F86" t="n">
-        <v>312.6239</v>
+        <v>468.2436</v>
       </c>
       <c r="G86" t="n">
-        <v>1236.816666666667</v>
+        <v>1236.716666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3764,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C87" t="n">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="D87" t="n">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E87" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F87" t="n">
-        <v>98.5</v>
+        <v>312.6239</v>
       </c>
       <c r="G87" t="n">
-        <v>1237</v>
+        <v>1236.816666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3799,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C88" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D88" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E88" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F88" t="n">
-        <v>280</v>
+        <v>98.5</v>
       </c>
       <c r="G88" t="n">
-        <v>1237.333333333333</v>
+        <v>1237</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3834,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C89" t="n">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D89" t="n">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E89" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F89" t="n">
-        <v>1015.1</v>
+        <v>280</v>
       </c>
       <c r="G89" t="n">
-        <v>1237.7</v>
+        <v>1237.333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3869,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C90" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D90" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E90" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F90" t="n">
-        <v>411</v>
+        <v>1015.1</v>
       </c>
       <c r="G90" t="n">
-        <v>1238.033333333333</v>
+        <v>1237.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3907,19 @@
         <v>1249</v>
       </c>
       <c r="C91" t="n">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D91" t="n">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E91" t="n">
         <v>1249</v>
       </c>
       <c r="F91" t="n">
-        <v>900</v>
+        <v>411</v>
       </c>
       <c r="G91" t="n">
-        <v>1238.383333333333</v>
+        <v>1238.033333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3939,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C92" t="n">
         <v>1250</v>
@@ -3592,13 +3948,13 @@
         <v>1250</v>
       </c>
       <c r="E92" t="n">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F92" t="n">
-        <v>691</v>
+        <v>900</v>
       </c>
       <c r="G92" t="n">
-        <v>1238.7</v>
+        <v>1238.383333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3974,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C93" t="n">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D93" t="n">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E93" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F93" t="n">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="G93" t="n">
-        <v>1239.133333333333</v>
+        <v>1238.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,7 +4009,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C94" t="n">
         <v>1253</v>
@@ -3662,13 +4018,13 @@
         <v>1253</v>
       </c>
       <c r="E94" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F94" t="n">
-        <v>340.328</v>
+        <v>678</v>
       </c>
       <c r="G94" t="n">
-        <v>1239.55</v>
+        <v>1239.133333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +4056,10 @@
         <v>1253</v>
       </c>
       <c r="F95" t="n">
-        <v>462</v>
+        <v>340.328</v>
       </c>
       <c r="G95" t="n">
-        <v>1239.966666666667</v>
+        <v>1239.55</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +4079,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C96" t="n">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D96" t="n">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="E96" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F96" t="n">
-        <v>1149.3715</v>
+        <v>462</v>
       </c>
       <c r="G96" t="n">
-        <v>1240.5</v>
+        <v>1239.966666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +4114,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C97" t="n">
         <v>1258</v>
       </c>
-      <c r="C97" t="n">
-        <v>1260</v>
-      </c>
       <c r="D97" t="n">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E97" t="n">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F97" t="n">
-        <v>204.0054</v>
+        <v>1149.3715</v>
       </c>
       <c r="G97" t="n">
-        <v>1241</v>
+        <v>1240.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +4152,19 @@
         <v>1258</v>
       </c>
       <c r="C98" t="n">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D98" t="n">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="E98" t="n">
         <v>1258</v>
       </c>
       <c r="F98" t="n">
-        <v>200</v>
+        <v>204.0054</v>
       </c>
       <c r="G98" t="n">
-        <v>1241.466666666667</v>
+        <v>1241</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4184,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C99" t="n">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="D99" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E99" t="n">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="F99" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="G99" t="n">
-        <v>1241.9</v>
+        <v>1241.466666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4219,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C100" t="n">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="D100" t="n">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E100" t="n">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="F100" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="G100" t="n">
-        <v>1242.433333333333</v>
+        <v>1241.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +4266,10 @@
         <v>1260</v>
       </c>
       <c r="F101" t="n">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c r="G101" t="n">
-        <v>1242.983333333333</v>
+        <v>1242.433333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4289,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C102" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D102" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E102" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F102" t="n">
-        <v>331.0039</v>
+        <v>99</v>
       </c>
       <c r="G102" t="n">
-        <v>1243.5</v>
+        <v>1242.983333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +4336,10 @@
         <v>1261</v>
       </c>
       <c r="F103" t="n">
-        <v>268.9961</v>
+        <v>331.0039</v>
       </c>
       <c r="G103" t="n">
-        <v>1243.933333333333</v>
+        <v>1243.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4371,10 @@
         <v>1261</v>
       </c>
       <c r="F104" t="n">
-        <v>48.7446</v>
+        <v>268.9961</v>
       </c>
       <c r="G104" t="n">
-        <v>1244.4</v>
+        <v>1243.933333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4394,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C105" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D105" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E105" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>48.7446</v>
       </c>
       <c r="G105" t="n">
-        <v>1244.916666666667</v>
+        <v>1244.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4441,10 @@
         <v>1263</v>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1245.433333333333</v>
+        <v>1244.916666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,28 +4464,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C107" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D107" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E107" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G107" t="n">
-        <v>1245.933333333333</v>
+        <v>1245.433333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4143,22 +4499,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C108" t="n">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D108" t="n">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E108" t="n">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F108" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>1246.483333333333</v>
+        <v>1245.933333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4534,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C109" t="n">
         <v>1265</v>
       </c>
       <c r="D109" t="n">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E109" t="n">
         <v>1265</v>
       </c>
       <c r="F109" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="G109" t="n">
-        <v>1247.016666666667</v>
+        <v>1246.483333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4572,19 @@
         <v>1266</v>
       </c>
       <c r="C110" t="n">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D110" t="n">
         <v>1266</v>
       </c>
       <c r="E110" t="n">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F110" t="n">
-        <v>990</v>
+        <v>101</v>
       </c>
       <c r="G110" t="n">
-        <v>1247.55</v>
+        <v>1247.016666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,16 +4616,16 @@
         <v>1266</v>
       </c>
       <c r="F111" t="n">
-        <v>414</v>
+        <v>990</v>
       </c>
       <c r="G111" t="n">
-        <v>1248.116666666667</v>
+        <v>1247.55</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4283,28 +4639,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C112" t="n">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D112" t="n">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E112" t="n">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F112" t="n">
-        <v>196.9832</v>
+        <v>414</v>
       </c>
       <c r="G112" t="n">
-        <v>1248.716666666667</v>
+        <v>1248.116666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4318,28 +4674,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C113" t="n">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="D113" t="n">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="E113" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="F113" t="n">
-        <v>1090</v>
+        <v>196.9832</v>
       </c>
       <c r="G113" t="n">
-        <v>1249.233333333333</v>
+        <v>1248.716666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4353,22 +4709,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C114" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D114" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E114" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="F114" t="n">
-        <v>156</v>
+        <v>1090</v>
       </c>
       <c r="G114" t="n">
-        <v>1249.7</v>
+        <v>1249.233333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4744,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C115" t="n">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D115" t="n">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E115" t="n">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F115" t="n">
-        <v>480</v>
+        <v>156</v>
       </c>
       <c r="G115" t="n">
-        <v>1250.233333333333</v>
+        <v>1249.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4779,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C116" t="n">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="D116" t="n">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="E116" t="n">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="F116" t="n">
-        <v>489.8271</v>
+        <v>480</v>
       </c>
       <c r="G116" t="n">
-        <v>1250.85</v>
+        <v>1250.233333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4814,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C117" t="n">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D117" t="n">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E117" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>489.8271</v>
       </c>
       <c r="G117" t="n">
-        <v>1251.45</v>
+        <v>1250.85</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4849,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C118" t="n">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="D118" t="n">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="E118" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F118" t="n">
-        <v>65.788</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>1252.166666666667</v>
+        <v>1251.45</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4887,19 @@
         <v>1273</v>
       </c>
       <c r="C119" t="n">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="D119" t="n">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E119" t="n">
         <v>1273</v>
       </c>
       <c r="F119" t="n">
-        <v>57.8</v>
+        <v>65.788</v>
       </c>
       <c r="G119" t="n">
-        <v>1252.75</v>
+        <v>1252.166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4919,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C120" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D120" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E120" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F120" t="n">
-        <v>700</v>
+        <v>57.8</v>
       </c>
       <c r="G120" t="n">
-        <v>1253.283333333333</v>
+        <v>1252.75</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4954,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C121" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D121" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E121" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F121" t="n">
-        <v>272.2</v>
+        <v>700</v>
       </c>
       <c r="G121" t="n">
-        <v>1253.833333333333</v>
+        <v>1253.283333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4989,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="C122" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="D122" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="E122" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="F122" t="n">
-        <v>584.732</v>
+        <v>272.2</v>
       </c>
       <c r="G122" t="n">
-        <v>1254.283333333333</v>
+        <v>1253.833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +5027,19 @@
         <v>1269</v>
       </c>
       <c r="C123" t="n">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D123" t="n">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E123" t="n">
         <v>1269</v>
       </c>
       <c r="F123" t="n">
-        <v>691</v>
+        <v>584.732</v>
       </c>
       <c r="G123" t="n">
-        <v>1254.7</v>
+        <v>1254.283333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +5062,19 @@
         <v>1269</v>
       </c>
       <c r="C124" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D124" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E124" t="n">
         <v>1269</v>
       </c>
       <c r="F124" t="n">
-        <v>825</v>
+        <v>691</v>
       </c>
       <c r="G124" t="n">
-        <v>1255.083333333333</v>
+        <v>1254.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5094,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C125" t="n">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D125" t="n">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E125" t="n">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F125" t="n">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="G125" t="n">
-        <v>1255.5</v>
+        <v>1255.083333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +5141,10 @@
         <v>1270</v>
       </c>
       <c r="F126" t="n">
-        <v>40.7</v>
+        <v>25</v>
       </c>
       <c r="G126" t="n">
-        <v>1255.916666666667</v>
+        <v>1255.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5164,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C127" t="n">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="D127" t="n">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E127" t="n">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="F127" t="n">
-        <v>279</v>
+        <v>40.7</v>
       </c>
       <c r="G127" t="n">
-        <v>1256.283333333333</v>
+        <v>1255.916666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +5211,10 @@
         <v>1267</v>
       </c>
       <c r="F128" t="n">
-        <v>600</v>
+        <v>279</v>
       </c>
       <c r="G128" t="n">
-        <v>1256.65</v>
+        <v>1256.283333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +5234,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C129" t="n">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D129" t="n">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E129" t="n">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="F129" t="n">
-        <v>116.3</v>
+        <v>600</v>
       </c>
       <c r="G129" t="n">
-        <v>1257.066666666667</v>
+        <v>1256.65</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5269,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C130" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D130" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E130" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>116.3</v>
       </c>
       <c r="G130" t="n">
-        <v>1257.5</v>
+        <v>1257.066666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5304,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C131" t="n">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D131" t="n">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E131" t="n">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F131" t="n">
         <v>300</v>
       </c>
       <c r="G131" t="n">
-        <v>1257.833333333333</v>
+        <v>1257.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5339,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C132" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D132" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E132" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="F132" t="n">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="G132" t="n">
-        <v>1258.133333333333</v>
+        <v>1257.833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5374,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="C133" t="n">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="D133" t="n">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="E133" t="n">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="F133" t="n">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="G133" t="n">
-        <v>1258.366666666667</v>
+        <v>1258.133333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5409,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="C134" t="n">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="D134" t="n">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="E134" t="n">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="F134" t="n">
-        <v>877</v>
+        <v>184</v>
       </c>
       <c r="G134" t="n">
-        <v>1258.566666666667</v>
+        <v>1258.366666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5444,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C135" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D135" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E135" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F135" t="n">
-        <v>439</v>
+        <v>877</v>
       </c>
       <c r="G135" t="n">
-        <v>1258.866666666667</v>
+        <v>1258.566666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5479,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C136" t="n">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D136" t="n">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="E136" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F136" t="n">
-        <v>2436</v>
+        <v>439</v>
       </c>
       <c r="G136" t="n">
-        <v>1259.2</v>
+        <v>1258.866666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5514,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C137" t="n">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D137" t="n">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E137" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F137" t="n">
-        <v>82.02379999999999</v>
+        <v>2436</v>
       </c>
       <c r="G137" t="n">
-        <v>1259.45</v>
+        <v>1259.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5549,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C138" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D138" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="E138" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="F138" t="n">
-        <v>502.84235668</v>
+        <v>82.02379999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>1259.583333333333</v>
+        <v>1259.45</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5584,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C139" t="n">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D139" t="n">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E139" t="n">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="F139" t="n">
-        <v>26.4</v>
+        <v>502.84235668</v>
       </c>
       <c r="G139" t="n">
-        <v>1259.866666666667</v>
+        <v>1259.583333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5619,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C140" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D140" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E140" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F140" t="n">
         <v>26.4</v>
       </c>
       <c r="G140" t="n">
-        <v>1260.15</v>
+        <v>1259.866666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5666,10 @@
         <v>1260</v>
       </c>
       <c r="F141" t="n">
-        <v>150</v>
+        <v>26.4</v>
       </c>
       <c r="G141" t="n">
-        <v>1260.4</v>
+        <v>1260.15</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5689,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="C142" t="n">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="D142" t="n">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="E142" t="n">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="F142" t="n">
-        <v>507.9</v>
+        <v>150</v>
       </c>
       <c r="G142" t="n">
-        <v>1260.533333333333</v>
+        <v>1260.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5724,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="C143" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="D143" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E143" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="F143" t="n">
-        <v>426</v>
+        <v>507.9</v>
       </c>
       <c r="G143" t="n">
-        <v>1260.616666666667</v>
+        <v>1260.533333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5759,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C144" t="n">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="D144" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E144" t="n">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="F144" t="n">
-        <v>103.7235</v>
+        <v>426</v>
       </c>
       <c r="G144" t="n">
-        <v>1260.666666666667</v>
+        <v>1260.616666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5797,19 @@
         <v>1247</v>
       </c>
       <c r="C145" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D145" t="n">
         <v>1247</v>
       </c>
       <c r="E145" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F145" t="n">
-        <v>246.9</v>
+        <v>103.7235</v>
       </c>
       <c r="G145" t="n">
-        <v>1260.783333333333</v>
+        <v>1260.666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5829,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C146" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D146" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="E146" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>246.9</v>
       </c>
       <c r="G146" t="n">
-        <v>1260.966666666667</v>
+        <v>1260.783333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5864,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C147" t="n">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D147" t="n">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E147" t="n">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F147" t="n">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="G147" t="n">
-        <v>1261.133333333333</v>
+        <v>1260.966666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5899,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C148" t="n">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="D148" t="n">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E148" t="n">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="F148" t="n">
-        <v>850.9</v>
+        <v>363</v>
       </c>
       <c r="G148" t="n">
-        <v>1261.233333333333</v>
+        <v>1261.133333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5937,19 @@
         <v>1252</v>
       </c>
       <c r="C149" t="n">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D149" t="n">
         <v>1252</v>
       </c>
       <c r="E149" t="n">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F149" t="n">
-        <v>1571.4754</v>
+        <v>850.9</v>
       </c>
       <c r="G149" t="n">
-        <v>1261.25</v>
+        <v>1261.233333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5969,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C150" t="n">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D150" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E150" t="n">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F150" t="n">
-        <v>197</v>
+        <v>1571.4754</v>
       </c>
       <c r="G150" t="n">
-        <v>1261.283333333333</v>
+        <v>1261.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +6004,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C151" t="n">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="D151" t="n">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E151" t="n">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="F151" t="n">
-        <v>1034.4754</v>
+        <v>197</v>
       </c>
       <c r="G151" t="n">
-        <v>1261.1</v>
+        <v>1261.283333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +6039,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C152" t="n">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="D152" t="n">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E152" t="n">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="F152" t="n">
-        <v>81.4406</v>
+        <v>1034.4754</v>
       </c>
       <c r="G152" t="n">
-        <v>1261.133333333333</v>
+        <v>1261.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +6074,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C153" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D153" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E153" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F153" t="n">
-        <v>230</v>
+        <v>81.4406</v>
       </c>
       <c r="G153" t="n">
-        <v>1261.1</v>
+        <v>1261.133333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,19 +6109,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C154" t="n">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D154" t="n">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E154" t="n">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F154" t="n">
-        <v>284.6</v>
+        <v>230</v>
       </c>
       <c r="G154" t="n">
         <v>1261.1</v>
@@ -5788,22 +6144,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C155" t="n">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D155" t="n">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="E155" t="n">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F155" t="n">
-        <v>445.9</v>
+        <v>284.6</v>
       </c>
       <c r="G155" t="n">
-        <v>1261.183333333333</v>
+        <v>1261.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +6182,19 @@
         <v>1255</v>
       </c>
       <c r="C156" t="n">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="D156" t="n">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="E156" t="n">
         <v>1255</v>
       </c>
       <c r="F156" t="n">
-        <v>700</v>
+        <v>445.9</v>
       </c>
       <c r="G156" t="n">
-        <v>1261.133333333333</v>
+        <v>1261.183333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6214,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="C157" t="n">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="D157" t="n">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="E157" t="n">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="F157" t="n">
-        <v>54.6</v>
+        <v>700</v>
       </c>
       <c r="G157" t="n">
-        <v>1260.95</v>
+        <v>1261.133333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6249,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C158" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D158" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E158" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F158" t="n">
-        <v>43.9</v>
+        <v>54.6</v>
       </c>
       <c r="G158" t="n">
-        <v>1260.766666666667</v>
+        <v>1260.95</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +6296,10 @@
         <v>1247</v>
       </c>
       <c r="F159" t="n">
-        <v>518.4065000000001</v>
+        <v>43.9</v>
       </c>
       <c r="G159" t="n">
-        <v>1260.633333333333</v>
+        <v>1260.766666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6319,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="C160" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="D160" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="E160" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="F160" t="n">
-        <v>174</v>
+        <v>518.4065000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>1260.316666666667</v>
+        <v>1260.633333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6354,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C161" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D161" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E161" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F161" t="n">
-        <v>402.459</v>
+        <v>174</v>
       </c>
       <c r="G161" t="n">
-        <v>1260.016666666667</v>
+        <v>1260.316666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6389,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C162" t="n">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D162" t="n">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E162" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F162" t="n">
-        <v>105.3392</v>
+        <v>402.459</v>
       </c>
       <c r="G162" t="n">
-        <v>1259.733333333333</v>
+        <v>1260.016666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6424,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C163" t="n">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D163" t="n">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E163" t="n">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F163" t="n">
-        <v>54.6</v>
+        <v>105.3392</v>
       </c>
       <c r="G163" t="n">
-        <v>1259.483333333333</v>
+        <v>1259.733333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6118,7 +6474,7 @@
         <v>54.6</v>
       </c>
       <c r="G164" t="n">
-        <v>1259.233333333333</v>
+        <v>1259.483333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6494,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C165" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D165" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E165" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F165" t="n">
-        <v>43.9</v>
+        <v>54.6</v>
       </c>
       <c r="G165" t="n">
-        <v>1258.933333333333</v>
+        <v>1259.233333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6529,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="C166" t="n">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="D166" t="n">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="E166" t="n">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="F166" t="n">
-        <v>44.9475</v>
+        <v>43.9</v>
       </c>
       <c r="G166" t="n">
-        <v>1258.55</v>
+        <v>1258.933333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6576,10 @@
         <v>1240</v>
       </c>
       <c r="F167" t="n">
-        <v>878.7879</v>
+        <v>44.9475</v>
       </c>
       <c r="G167" t="n">
-        <v>1258.183333333333</v>
+        <v>1258.55</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6611,10 @@
         <v>1240</v>
       </c>
       <c r="F168" t="n">
-        <v>44.9</v>
+        <v>878.7879</v>
       </c>
       <c r="G168" t="n">
-        <v>1257.766666666667</v>
+        <v>1258.183333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6634,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C169" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D169" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E169" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F169" t="n">
-        <v>287</v>
+        <v>44.9</v>
       </c>
       <c r="G169" t="n">
-        <v>1257.4</v>
+        <v>1257.766666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6681,10 @@
         <v>1243</v>
       </c>
       <c r="F170" t="n">
-        <v>44.9</v>
+        <v>287</v>
       </c>
       <c r="G170" t="n">
-        <v>1257.016666666667</v>
+        <v>1257.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6704,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="C171" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="D171" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E171" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="F171" t="n">
-        <v>517.1105</v>
+        <v>44.9</v>
       </c>
       <c r="G171" t="n">
-        <v>1256.566666666667</v>
+        <v>1257.016666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6751,10 @@
         <v>1239</v>
       </c>
       <c r="F172" t="n">
-        <v>224</v>
+        <v>517.1105</v>
       </c>
       <c r="G172" t="n">
-        <v>1256.083333333333</v>
+        <v>1256.566666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6774,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C173" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D173" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E173" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F173" t="n">
-        <v>87.6972</v>
+        <v>224</v>
       </c>
       <c r="G173" t="n">
-        <v>1255.616666666667</v>
+        <v>1256.083333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6812,19 @@
         <v>1237</v>
       </c>
       <c r="C174" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D174" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E174" t="n">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="F174" t="n">
-        <v>2303.5003</v>
+        <v>87.6972</v>
       </c>
       <c r="G174" t="n">
-        <v>1255.216666666667</v>
+        <v>1255.616666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6847,19 @@
         <v>1237</v>
       </c>
       <c r="C175" t="n">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="D175" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E175" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F175" t="n">
-        <v>332.8446</v>
+        <v>2303.5003</v>
       </c>
       <c r="G175" t="n">
-        <v>1254.7</v>
+        <v>1255.216666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6879,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C176" t="n">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="D176" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E176" t="n">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="F176" t="n">
-        <v>26.8</v>
+        <v>332.8446</v>
       </c>
       <c r="G176" t="n">
-        <v>1254.166666666667</v>
+        <v>1254.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6914,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="C177" t="n">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="D177" t="n">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="E177" t="n">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="F177" t="n">
-        <v>53.6</v>
+        <v>26.8</v>
       </c>
       <c r="G177" t="n">
-        <v>1253.75</v>
+        <v>1254.166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6961,10 @@
         <v>1246</v>
       </c>
       <c r="F178" t="n">
-        <v>26.8</v>
+        <v>53.6</v>
       </c>
       <c r="G178" t="n">
-        <v>1253.25</v>
+        <v>1253.75</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6984,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C179" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D179" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E179" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F179" t="n">
-        <v>399</v>
+        <v>26.8</v>
       </c>
       <c r="G179" t="n">
-        <v>1252.816666666667</v>
+        <v>1253.25</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,10 +7031,10 @@
         <v>1247</v>
       </c>
       <c r="F180" t="n">
-        <v>26.8</v>
+        <v>399</v>
       </c>
       <c r="G180" t="n">
-        <v>1252.416666666667</v>
+        <v>1252.816666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +7054,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C181" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D181" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E181" t="n">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F181" t="n">
-        <v>1429.8</v>
+        <v>26.8</v>
       </c>
       <c r="G181" t="n">
-        <v>1252.016666666667</v>
+        <v>1252.416666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6736,19 +7092,19 @@
         <v>1248</v>
       </c>
       <c r="C182" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D182" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E182" t="n">
         <v>1248</v>
       </c>
-      <c r="E182" t="n">
-        <v>1247</v>
-      </c>
       <c r="F182" t="n">
-        <v>268.6832</v>
+        <v>1429.8</v>
       </c>
       <c r="G182" t="n">
-        <v>1251.65</v>
+        <v>1252.016666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +7124,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C183" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D183" t="n">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E183" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F183" t="n">
-        <v>138.2757</v>
+        <v>268.6832</v>
       </c>
       <c r="G183" t="n">
-        <v>1251.25</v>
+        <v>1251.65</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,7 +7159,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C184" t="n">
         <v>1246</v>
@@ -6812,13 +7168,13 @@
         <v>1246</v>
       </c>
       <c r="E184" t="n">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="F184" t="n">
-        <v>644.2092</v>
+        <v>138.2757</v>
       </c>
       <c r="G184" t="n">
-        <v>1250.866666666667</v>
+        <v>1251.25</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7194,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C185" t="n">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D185" t="n">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="E185" t="n">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F185" t="n">
-        <v>144.9</v>
+        <v>644.2092</v>
       </c>
       <c r="G185" t="n">
-        <v>1250.516666666667</v>
+        <v>1250.866666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,7 +7229,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C186" t="n">
         <v>1249</v>
@@ -6882,13 +7238,13 @@
         <v>1249</v>
       </c>
       <c r="E186" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F186" t="n">
-        <v>26.8</v>
+        <v>144.9</v>
       </c>
       <c r="G186" t="n">
-        <v>1250.166666666667</v>
+        <v>1250.516666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6920,10 +7276,10 @@
         <v>1249</v>
       </c>
       <c r="F187" t="n">
-        <v>624.8318</v>
+        <v>26.8</v>
       </c>
       <c r="G187" t="n">
-        <v>1249.866666666667</v>
+        <v>1250.166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6946,19 +7302,19 @@
         <v>1249</v>
       </c>
       <c r="C188" t="n">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="D188" t="n">
         <v>1249</v>
       </c>
       <c r="E188" t="n">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="F188" t="n">
-        <v>394.0147</v>
+        <v>624.8318</v>
       </c>
       <c r="G188" t="n">
-        <v>1249.5</v>
+        <v>1249.866666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7334,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="C189" t="n">
         <v>1245</v>
       </c>
       <c r="D189" t="n">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="E189" t="n">
         <v>1245</v>
       </c>
       <c r="F189" t="n">
-        <v>35.9</v>
+        <v>394.0147</v>
       </c>
       <c r="G189" t="n">
-        <v>1249.083333333333</v>
+        <v>1249.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7381,10 @@
         <v>1245</v>
       </c>
       <c r="F190" t="n">
-        <v>400</v>
+        <v>35.9</v>
       </c>
       <c r="G190" t="n">
-        <v>1248.683333333333</v>
+        <v>1249.083333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7404,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C191" t="n">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D191" t="n">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E191" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F191" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G191" t="n">
-        <v>1248.383333333333</v>
+        <v>1248.683333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7439,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C192" t="n">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D192" t="n">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E192" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G192" t="n">
-        <v>1248.15</v>
+        <v>1248.383333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7486,10 @@
         <v>1251</v>
       </c>
       <c r="F193" t="n">
-        <v>30.7</v>
+        <v>200</v>
       </c>
       <c r="G193" t="n">
-        <v>1247.983333333333</v>
+        <v>1248.15</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7509,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C194" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D194" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E194" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F194" t="n">
-        <v>700</v>
+        <v>30.7</v>
       </c>
       <c r="G194" t="n">
-        <v>1247.866666666667</v>
+        <v>1247.983333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7544,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C195" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D195" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E195" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F195" t="n">
         <v>700</v>
       </c>
       <c r="G195" t="n">
-        <v>1247.8</v>
+        <v>1247.866666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7579,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C196" t="n">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D196" t="n">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E196" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F196" t="n">
-        <v>762</v>
+        <v>700</v>
       </c>
       <c r="G196" t="n">
-        <v>1247.616666666667</v>
+        <v>1247.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7614,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C197" t="n">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="D197" t="n">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E197" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F197" t="n">
-        <v>944</v>
+        <v>762</v>
       </c>
       <c r="G197" t="n">
-        <v>1247.533333333333</v>
+        <v>1247.616666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7649,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C198" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D198" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E198" t="n">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F198" t="n">
-        <v>120</v>
+        <v>944</v>
       </c>
       <c r="G198" t="n">
-        <v>1247.55</v>
+        <v>1247.533333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7684,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C199" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D199" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E199" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F199" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="G199" t="n">
-        <v>1247.533333333333</v>
+        <v>1247.55</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7719,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C200" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D200" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E200" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F200" t="n">
-        <v>1326.1783</v>
+        <v>400</v>
       </c>
       <c r="G200" t="n">
-        <v>1247.466666666667</v>
+        <v>1247.533333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7401,19 +7757,19 @@
         <v>1257</v>
       </c>
       <c r="C201" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D201" t="n">
         <v>1257</v>
       </c>
       <c r="E201" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F201" t="n">
-        <v>208.7217</v>
+        <v>1326.1783</v>
       </c>
       <c r="G201" t="n">
-        <v>1247.416666666667</v>
+        <v>1247.466666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7789,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C202" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D202" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E202" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F202" t="n">
-        <v>297.4952</v>
+        <v>208.7217</v>
       </c>
       <c r="G202" t="n">
-        <v>1247.433333333333</v>
+        <v>1247.416666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7824,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C203" t="n">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D203" t="n">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E203" t="n">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F203" t="n">
-        <v>1049.3786</v>
+        <v>297.4952</v>
       </c>
       <c r="G203" t="n">
-        <v>1247.583333333333</v>
+        <v>1247.433333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7859,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C204" t="n">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D204" t="n">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E204" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F204" t="n">
-        <v>350</v>
+        <v>1049.3786</v>
       </c>
       <c r="G204" t="n">
-        <v>1247.766666666667</v>
+        <v>1247.583333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7906,10 @@
         <v>1257</v>
       </c>
       <c r="F205" t="n">
-        <v>30.7</v>
+        <v>350</v>
       </c>
       <c r="G205" t="n">
-        <v>1247.933333333333</v>
+        <v>1247.766666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7941,10 @@
         <v>1257</v>
       </c>
       <c r="F206" t="n">
-        <v>836</v>
+        <v>30.7</v>
       </c>
       <c r="G206" t="n">
-        <v>1248.033333333333</v>
+        <v>1247.933333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7964,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C207" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D207" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E207" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F207" t="n">
-        <v>286.1801</v>
+        <v>836</v>
       </c>
       <c r="G207" t="n">
-        <v>1248.116666666667</v>
+        <v>1248.033333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7999,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C208" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D208" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="E208" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F208" t="n">
-        <v>32.3</v>
+        <v>286.1801</v>
       </c>
       <c r="G208" t="n">
-        <v>1248.2</v>
+        <v>1248.116666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +8034,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C209" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D209" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E209" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F209" t="n">
-        <v>700</v>
+        <v>32.3</v>
       </c>
       <c r="G209" t="n">
-        <v>1248.333333333333</v>
+        <v>1248.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +8069,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C210" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D210" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E210" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F210" t="n">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="G210" t="n">
-        <v>1248.466666666667</v>
+        <v>1248.333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,7 +8104,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C211" t="n">
         <v>1259</v>
@@ -7757,13 +8113,13 @@
         <v>1259</v>
       </c>
       <c r="E211" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F211" t="n">
-        <v>61.5</v>
+        <v>619</v>
       </c>
       <c r="G211" t="n">
-        <v>1248.8</v>
+        <v>1248.466666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +8139,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C212" t="n">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D212" t="n">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E212" t="n">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F212" t="n">
-        <v>397.4471</v>
+        <v>61.5</v>
       </c>
       <c r="G212" t="n">
-        <v>1248.9</v>
+        <v>1248.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +8174,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="C213" t="n">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="D213" t="n">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="E213" t="n">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="F213" t="n">
-        <v>2434.4467</v>
+        <v>397.4471</v>
       </c>
       <c r="G213" t="n">
-        <v>1248.766666666667</v>
+        <v>1248.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +8209,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C214" t="n">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="D214" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E214" t="n">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F214" t="n">
-        <v>393</v>
+        <v>2434.4467</v>
       </c>
       <c r="G214" t="n">
-        <v>1248.666666666667</v>
+        <v>1248.766666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +8244,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C215" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D215" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E215" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F215" t="n">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="G215" t="n">
-        <v>1248.466666666667</v>
+        <v>1248.666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +8279,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C216" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D216" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E216" t="n">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F216" t="n">
-        <v>1000</v>
+        <v>464</v>
       </c>
       <c r="G216" t="n">
-        <v>1248.333333333333</v>
+        <v>1248.466666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,19 +8314,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C217" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D217" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E217" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F217" t="n">
-        <v>690</v>
+        <v>1000</v>
       </c>
       <c r="G217" t="n">
         <v>1248.333333333333</v>
@@ -7993,22 +8349,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C218" t="n">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D218" t="n">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E218" t="n">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F218" t="n">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="G218" t="n">
-        <v>1248.416666666667</v>
+        <v>1248.333333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8384,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C219" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D219" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E219" t="n">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F219" t="n">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="G219" t="n">
-        <v>1248.516666666667</v>
+        <v>1248.416666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8419,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="C220" t="n">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="D220" t="n">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="E220" t="n">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="F220" t="n">
-        <v>6.3745</v>
+        <v>464</v>
       </c>
       <c r="G220" t="n">
-        <v>1248.65</v>
+        <v>1248.516666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8454,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C221" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D221" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E221" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F221" t="n">
-        <v>500</v>
+        <v>6.3745</v>
       </c>
       <c r="G221" t="n">
-        <v>1248.733333333333</v>
+        <v>1248.65</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8489,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C222" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D222" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E222" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="F222" t="n">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="G222" t="n">
-        <v>1248.833333333333</v>
+        <v>1248.733333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8524,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C223" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D223" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E223" t="n">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F223" t="n">
-        <v>69</v>
+        <v>427</v>
       </c>
       <c r="G223" t="n">
-        <v>1248.916666666667</v>
+        <v>1248.833333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8559,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="C224" t="n">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D224" t="n">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="E224" t="n">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="F224" t="n">
-        <v>53.1405</v>
+        <v>69</v>
       </c>
       <c r="G224" t="n">
-        <v>1249.1</v>
+        <v>1248.916666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8594,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C225" t="n">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D225" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E225" t="n">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F225" t="n">
-        <v>0.3809</v>
+        <v>53.1405</v>
       </c>
       <c r="G225" t="n">
-        <v>1249.35</v>
+        <v>1249.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8629,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C226" t="n">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D226" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E226" t="n">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F226" t="n">
-        <v>15.1425</v>
+        <v>0.3809</v>
       </c>
       <c r="G226" t="n">
-        <v>1249.666666666667</v>
+        <v>1249.35</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8311,19 +8667,19 @@
         <v>1261</v>
       </c>
       <c r="C227" t="n">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D227" t="n">
         <v>1261</v>
       </c>
       <c r="E227" t="n">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F227" t="n">
-        <v>30.32</v>
+        <v>15.1425</v>
       </c>
       <c r="G227" t="n">
-        <v>1250.016666666667</v>
+        <v>1249.666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8699,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C228" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D228" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E228" t="n">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F228" t="n">
-        <v>886</v>
+        <v>30.32</v>
       </c>
       <c r="G228" t="n">
-        <v>1250.4</v>
+        <v>1250.016666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8381,19 +8737,19 @@
         <v>1262</v>
       </c>
       <c r="C229" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D229" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E229" t="n">
         <v>1262</v>
       </c>
       <c r="F229" t="n">
-        <v>30.3</v>
+        <v>886</v>
       </c>
       <c r="G229" t="n">
-        <v>1250.716666666667</v>
+        <v>1250.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8769,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C230" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D230" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E230" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="F230" t="n">
-        <v>670</v>
+        <v>30.3</v>
       </c>
       <c r="G230" t="n">
-        <v>1251.016666666667</v>
+        <v>1250.716666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8804,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C231" t="n">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D231" t="n">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E231" t="n">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F231" t="n">
-        <v>360</v>
+        <v>670</v>
       </c>
       <c r="G231" t="n">
-        <v>1251.45</v>
+        <v>1251.016666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8839,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C232" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D232" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E232" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F232" t="n">
-        <v>32.9</v>
+        <v>360</v>
       </c>
       <c r="G232" t="n">
-        <v>1251.866666666667</v>
+        <v>1251.45</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8874,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="C233" t="n">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="D233" t="n">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="E233" t="n">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="F233" t="n">
-        <v>258</v>
+        <v>32.9</v>
       </c>
       <c r="G233" t="n">
-        <v>1252.2</v>
+        <v>1251.866666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8909,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C234" t="n">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D234" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E234" t="n">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F234" t="n">
-        <v>669.6535</v>
+        <v>258</v>
       </c>
       <c r="G234" t="n">
-        <v>1252.466666666667</v>
+        <v>1252.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8944,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C235" t="n">
         <v>1255</v>
       </c>
       <c r="D235" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E235" t="n">
         <v>1255</v>
       </c>
       <c r="F235" t="n">
-        <v>630</v>
+        <v>669.6535</v>
       </c>
       <c r="G235" t="n">
-        <v>1252.8</v>
+        <v>1252.466666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8626,19 +8982,19 @@
         <v>1255</v>
       </c>
       <c r="C236" t="n">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D236" t="n">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E236" t="n">
         <v>1255</v>
       </c>
       <c r="F236" t="n">
-        <v>868.6</v>
+        <v>630</v>
       </c>
       <c r="G236" t="n">
-        <v>1253.083333333333</v>
+        <v>1252.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +9014,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C237" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="D237" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E237" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F237" t="n">
-        <v>39.6</v>
+        <v>868.6</v>
       </c>
       <c r="G237" t="n">
-        <v>1253.216666666667</v>
+        <v>1253.083333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +9049,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C238" t="n">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D238" t="n">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E238" t="n">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F238" t="n">
-        <v>1020.1889</v>
+        <v>39.6</v>
       </c>
       <c r="G238" t="n">
-        <v>1253.416666666667</v>
+        <v>1253.216666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,7 +9084,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C239" t="n">
         <v>1258</v>
@@ -8737,13 +9093,13 @@
         <v>1258</v>
       </c>
       <c r="E239" t="n">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F239" t="n">
-        <v>450.4</v>
+        <v>1020.1889</v>
       </c>
       <c r="G239" t="n">
-        <v>1253.6</v>
+        <v>1253.416666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8775,10 +9131,10 @@
         <v>1258</v>
       </c>
       <c r="F240" t="n">
-        <v>583.2263</v>
+        <v>450.4</v>
       </c>
       <c r="G240" t="n">
-        <v>1253.783333333333</v>
+        <v>1253.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +9154,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C241" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D241" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E241" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F241" t="n">
-        <v>39.6</v>
+        <v>583.2263</v>
       </c>
       <c r="G241" t="n">
-        <v>1253.9</v>
+        <v>1253.783333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +9189,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C242" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="D242" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="E242" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="F242" t="n">
-        <v>1022</v>
+        <v>39.6</v>
       </c>
       <c r="G242" t="n">
-        <v>1254</v>
+        <v>1253.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +9224,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C243" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D243" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E243" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F243" t="n">
-        <v>200</v>
+        <v>1022</v>
       </c>
       <c r="G243" t="n">
-        <v>1254.1</v>
+        <v>1254</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +9259,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C244" t="n">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D244" t="n">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E244" t="n">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F244" t="n">
-        <v>1044</v>
+        <v>200</v>
       </c>
       <c r="G244" t="n">
-        <v>1254.233333333333</v>
+        <v>1254.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +9294,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C245" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D245" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E245" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F245" t="n">
-        <v>350</v>
+        <v>1044</v>
       </c>
       <c r="G245" t="n">
-        <v>1254.366666666667</v>
+        <v>1254.233333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8985,10 +9341,10 @@
         <v>1257</v>
       </c>
       <c r="F246" t="n">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="G246" t="n">
-        <v>1254.5</v>
+        <v>1254.366666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9364,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C247" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="D247" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E247" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="F247" t="n">
-        <v>692.3909</v>
+        <v>278</v>
       </c>
       <c r="G247" t="n">
-        <v>1254.583333333333</v>
+        <v>1254.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9399,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C248" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D248" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E248" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="F248" t="n">
-        <v>200</v>
+        <v>692.3909</v>
       </c>
       <c r="G248" t="n">
-        <v>1254.716666666667</v>
+        <v>1254.583333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9434,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C249" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D249" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E249" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F249" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="G249" t="n">
-        <v>1254.883333333333</v>
+        <v>1254.716666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9469,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="C250" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="D250" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E250" t="n">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="F250" t="n">
-        <v>212.4394</v>
+        <v>290</v>
       </c>
       <c r="G250" t="n">
-        <v>1254.966666666667</v>
+        <v>1254.883333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9504,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C251" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D251" t="n">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E251" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="F251" t="n">
-        <v>28.5877</v>
+        <v>212.4394</v>
       </c>
       <c r="G251" t="n">
-        <v>1254.95</v>
+        <v>1254.966666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,10 +9539,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>1249</v>
+      </c>
+      <c r="C252" t="n">
         <v>1248</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1249</v>
       </c>
       <c r="D252" t="n">
         <v>1249</v>
@@ -9195,10 +9551,10 @@
         <v>1248</v>
       </c>
       <c r="F252" t="n">
-        <v>822.6123</v>
+        <v>28.5877</v>
       </c>
       <c r="G252" t="n">
-        <v>1254.916666666667</v>
+        <v>1254.95</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9574,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C253" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D253" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E253" t="n">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F253" t="n">
-        <v>500</v>
+        <v>822.6123</v>
       </c>
       <c r="G253" t="n">
-        <v>1254.85</v>
+        <v>1254.916666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9256,19 +9612,19 @@
         <v>1247</v>
       </c>
       <c r="C254" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D254" t="n">
         <v>1247</v>
       </c>
       <c r="E254" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F254" t="n">
-        <v>54.2</v>
+        <v>500</v>
       </c>
       <c r="G254" t="n">
-        <v>1254.783333333333</v>
+        <v>1254.85</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9644,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C255" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D255" t="n">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E255" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F255" t="n">
-        <v>2.3185</v>
+        <v>54.2</v>
       </c>
       <c r="G255" t="n">
-        <v>1254.666666666667</v>
+        <v>1254.783333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9679,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C256" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D256" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E256" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F256" t="n">
-        <v>186</v>
+        <v>2.3185</v>
       </c>
       <c r="G256" t="n">
-        <v>1254.566666666667</v>
+        <v>1254.666666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9714,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C257" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D257" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E257" t="n">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F257" t="n">
-        <v>148.9564</v>
+        <v>186</v>
       </c>
       <c r="G257" t="n">
-        <v>1254.416666666667</v>
+        <v>1254.566666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9749,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C258" t="n">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D258" t="n">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E258" t="n">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F258" t="n">
-        <v>332.8</v>
+        <v>148.9564</v>
       </c>
       <c r="G258" t="n">
-        <v>1254.266666666667</v>
+        <v>1254.416666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9784,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C259" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D259" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E259" t="n">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F259" t="n">
-        <v>1000</v>
+        <v>332.8</v>
       </c>
       <c r="G259" t="n">
-        <v>1254.116666666667</v>
+        <v>1254.266666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9819,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C260" t="n">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="D260" t="n">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E260" t="n">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F260" t="n">
-        <v>691</v>
+        <v>1000</v>
       </c>
       <c r="G260" t="n">
-        <v>1254.066666666667</v>
+        <v>1254.116666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9854,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C261" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D261" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E261" t="n">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F261" t="n">
-        <v>565</v>
+        <v>691</v>
       </c>
       <c r="G261" t="n">
-        <v>1254.033333333333</v>
+        <v>1254.066666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9889,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="C262" t="n">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="D262" t="n">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="E262" t="n">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="F262" t="n">
-        <v>27.1</v>
+        <v>565</v>
       </c>
       <c r="G262" t="n">
-        <v>1253.883333333333</v>
+        <v>1254.033333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9924,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="C263" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="D263" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="E263" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="F263" t="n">
-        <v>3</v>
+        <v>27.1</v>
       </c>
       <c r="G263" t="n">
-        <v>1253.583333333333</v>
+        <v>1253.883333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9615,10 +9971,10 @@
         <v>1241</v>
       </c>
       <c r="F264" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="G264" t="n">
-        <v>1253.316666666667</v>
+        <v>1253.583333333333</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,22 +9994,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C265" t="n">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D265" t="n">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E265" t="n">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F265" t="n">
-        <v>1.83829444</v>
+        <v>109</v>
       </c>
       <c r="G265" t="n">
-        <v>1253.083333333333</v>
+        <v>1253.316666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +10029,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C266" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="D266" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E266" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="F266" t="n">
-        <v>1046.7552</v>
+        <v>1.83829444</v>
       </c>
       <c r="G266" t="n">
-        <v>1252.783333333333</v>
+        <v>1253.083333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +10064,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="C267" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D267" t="n">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="E267" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F267" t="n">
-        <v>2.42522231</v>
+        <v>1046.7552</v>
       </c>
       <c r="G267" t="n">
-        <v>1252.416666666667</v>
+        <v>1252.783333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9755,10 +10111,10 @@
         <v>1237</v>
       </c>
       <c r="F268" t="n">
-        <v>110</v>
+        <v>2.42522231</v>
       </c>
       <c r="G268" t="n">
-        <v>1252.1</v>
+        <v>1252.416666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +10134,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C269" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D269" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E269" t="n">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F269" t="n">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="G269" t="n">
-        <v>1251.8</v>
+        <v>1252.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +10169,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C270" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D270" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E270" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F270" t="n">
-        <v>753.0769</v>
+        <v>406</v>
       </c>
       <c r="G270" t="n">
-        <v>1251.433333333333</v>
+        <v>1251.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,22 +10204,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C271" t="n">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D271" t="n">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E271" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F271" t="n">
-        <v>789</v>
+        <v>753.0769</v>
       </c>
       <c r="G271" t="n">
-        <v>1251.083333333333</v>
+        <v>1251.433333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +10239,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C272" t="n">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D272" t="n">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E272" t="n">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F272" t="n">
-        <v>228</v>
+        <v>789</v>
       </c>
       <c r="G272" t="n">
-        <v>1250.783333333333</v>
+        <v>1251.083333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,22 +10274,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C273" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D273" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E273" t="n">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F273" t="n">
-        <v>66.7</v>
+        <v>228</v>
       </c>
       <c r="G273" t="n">
-        <v>1250.75</v>
+        <v>1250.783333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +10309,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="C274" t="n">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="D274" t="n">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="E274" t="n">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="F274" t="n">
-        <v>827</v>
+        <v>66.7</v>
       </c>
       <c r="G274" t="n">
-        <v>1250.566666666667</v>
+        <v>1250.75</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +10344,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C275" t="n">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D275" t="n">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E275" t="n">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F275" t="n">
-        <v>704</v>
+        <v>827</v>
       </c>
       <c r="G275" t="n">
-        <v>1250.433333333333</v>
+        <v>1250.566666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10035,23 +10391,19 @@
         <v>1238</v>
       </c>
       <c r="F276" t="n">
-        <v>482</v>
+        <v>704</v>
       </c>
       <c r="G276" t="n">
-        <v>1250.283333333333</v>
+        <v>1250.433333333333</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K276" t="n">
-        <v>1238</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
@@ -10074,28 +10426,20 @@
         <v>1238</v>
       </c>
       <c r="F277" t="n">
-        <v>0.242</v>
+        <v>482</v>
       </c>
       <c r="G277" t="n">
-        <v>1250.1</v>
+        <v>1250.283333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K277" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10105,40 +10449,32 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C278" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D278" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E278" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F278" t="n">
-        <v>299.758</v>
+        <v>0.242</v>
       </c>
       <c r="G278" t="n">
-        <v>1249.85</v>
+        <v>1250.1</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K278" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10148,35 +10484,31 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C279" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D279" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E279" t="n">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F279" t="n">
-        <v>183.6659</v>
+        <v>299.758</v>
       </c>
       <c r="G279" t="n">
-        <v>1249.633333333333</v>
+        <v>1249.85</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>1237</v>
-      </c>
-      <c r="K279" t="n">
-        <v>1237</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
@@ -10187,40 +10519,32 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C280" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D280" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E280" t="n">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F280" t="n">
-        <v>60.4</v>
+        <v>183.6659</v>
       </c>
       <c r="G280" t="n">
-        <v>1249.516666666667</v>
+        <v>1249.633333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>1240</v>
-      </c>
-      <c r="K280" t="n">
-        <v>1237</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10242,10 +10566,10 @@
         <v>1242</v>
       </c>
       <c r="F281" t="n">
-        <v>33.4</v>
+        <v>60.4</v>
       </c>
       <c r="G281" t="n">
-        <v>1249.433333333333</v>
+        <v>1249.516666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10254,14 +10578,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>1237</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10271,22 +10589,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C282" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D282" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E282" t="n">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F282" t="n">
-        <v>60.4</v>
+        <v>33.4</v>
       </c>
       <c r="G282" t="n">
-        <v>1249.316666666667</v>
+        <v>1249.433333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10306,22 +10624,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C283" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D283" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E283" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F283" t="n">
-        <v>300</v>
+        <v>60.4</v>
       </c>
       <c r="G283" t="n">
-        <v>1249.166666666667</v>
+        <v>1249.316666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10341,22 +10659,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C284" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D284" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E284" t="n">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F284" t="n">
-        <v>769.1</v>
+        <v>300</v>
       </c>
       <c r="G284" t="n">
-        <v>1248.966666666667</v>
+        <v>1249.166666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10376,22 +10694,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C285" t="n">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="D285" t="n">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="E285" t="n">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="F285" t="n">
-        <v>400</v>
+        <v>769.1</v>
       </c>
       <c r="G285" t="n">
-        <v>1248.666666666667</v>
+        <v>1248.966666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10411,22 +10729,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C286" t="n">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="D286" t="n">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="E286" t="n">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F286" t="n">
-        <v>73.90000000000001</v>
+        <v>400</v>
       </c>
       <c r="G286" t="n">
-        <v>1248.466666666667</v>
+        <v>1248.666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10458,10 +10776,10 @@
         <v>1247</v>
       </c>
       <c r="F287" t="n">
-        <v>300</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G287" t="n">
-        <v>1248.233333333333</v>
+        <v>1248.466666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10481,22 +10799,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C288" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D288" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E288" t="n">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F288" t="n">
-        <v>701</v>
+        <v>300</v>
       </c>
       <c r="G288" t="n">
-        <v>1248.016666666667</v>
+        <v>1248.233333333333</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10516,22 +10834,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C289" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D289" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="E289" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F289" t="n">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="G289" t="n">
-        <v>1247.783333333333</v>
+        <v>1248.016666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10551,22 +10869,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C290" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D290" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E290" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F290" t="n">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="G290" t="n">
-        <v>1247.6</v>
+        <v>1247.783333333333</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10598,10 +10916,10 @@
         <v>1250</v>
       </c>
       <c r="F291" t="n">
-        <v>336</v>
+        <v>649</v>
       </c>
       <c r="G291" t="n">
-        <v>1247.35</v>
+        <v>1247.6</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10621,22 +10939,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C292" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D292" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E292" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F292" t="n">
-        <v>1020</v>
+        <v>336</v>
       </c>
       <c r="G292" t="n">
-        <v>1247.15</v>
+        <v>1247.35</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10668,10 +10986,10 @@
         <v>1252</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="G293" t="n">
-        <v>1247.066666666667</v>
+        <v>1247.15</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10691,22 +11009,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="C294" t="n">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="D294" t="n">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="E294" t="n">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="F294" t="n">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="G294" t="n">
-        <v>1246.933333333333</v>
+        <v>1247.066666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10738,10 +11056,10 @@
         <v>1247</v>
       </c>
       <c r="F295" t="n">
-        <v>33.3</v>
+        <v>281</v>
       </c>
       <c r="G295" t="n">
-        <v>1246.8</v>
+        <v>1246.933333333333</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10773,10 +11091,10 @@
         <v>1247</v>
       </c>
       <c r="F296" t="n">
-        <v>676</v>
+        <v>33.3</v>
       </c>
       <c r="G296" t="n">
-        <v>1246.633333333333</v>
+        <v>1246.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10791,6 +11109,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1247</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1247</v>
+      </c>
+      <c r="F297" t="n">
+        <v>676</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1246.633333333333</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest BHP.xlsx
+++ b/BackTest/2019-11-01 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N365"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2101.90917225</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>2101.90917225</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>1211</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>2691.15617225</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>1211</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>2694.44767019</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>1216</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>2699.54939291</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>1217</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>2691.54939291</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>1219</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>2691.54939291</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>1217</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,19 @@
         <v>2553.54939291</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1217</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +755,19 @@
         <v>2948.87478321</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1215</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +792,19 @@
         <v>3118.87478321</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1217</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +829,19 @@
         <v>3809.87478321</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1219</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +866,19 @@
         <v>4379.87478321</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1222</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +903,19 @@
         <v>4594.87478321</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1224</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +940,19 @@
         <v>4594.87478321</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1226</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +977,19 @@
         <v>5660.87478321</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1226</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1014,19 @@
         <v>6776.87478321</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1228</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1124,20 +1053,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,20 +1090,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,20 +1127,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1244,20 +1164,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,20 +1201,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1324,20 +1238,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1364,20 +1275,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1404,20 +1312,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1444,20 +1349,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1484,20 +1386,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1524,20 +1423,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1564,20 +1460,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1604,20 +1497,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1644,20 +1534,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1684,20 +1571,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,20 +1608,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,20 +1645,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1804,20 +1682,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,20 +1719,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1884,20 +1756,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1924,20 +1793,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1964,20 +1830,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2004,20 +1867,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2044,20 +1904,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2084,20 +1941,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2124,20 +1978,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2164,20 +2015,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2204,20 +2052,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2242,22 +2087,19 @@
         <v>8652.306599339998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2282,22 +2124,19 @@
         <v>9749.606599339997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2322,22 +2161,19 @@
         <v>10460.60659934</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2362,22 +2198,19 @@
         <v>8850.606599339997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2402,22 +2235,19 @@
         <v>9759.606599339997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2442,22 +2272,19 @@
         <v>9615.065499339997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2482,22 +2309,19 @@
         <v>9071.642899339997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2524,20 +2348,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2562,22 +2383,19 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2604,20 +2422,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2644,20 +2459,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2682,22 +2494,19 @@
         <v>8788.457899339999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2722,22 +2531,19 @@
         <v>9659.457899339999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2762,22 +2568,19 @@
         <v>10269.45789934</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2802,22 +2605,19 @@
         <v>10269.70029934</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2842,22 +2642,19 @@
         <v>10204.10029934</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2884,20 +2681,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2924,20 +2718,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2964,20 +2755,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3004,20 +2792,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3044,20 +2829,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3084,20 +2866,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3124,20 +2903,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3164,20 +2940,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3204,20 +2977,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3244,20 +3014,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3284,20 +3051,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3324,20 +3088,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3364,20 +3125,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3404,20 +3162,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3444,20 +3199,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3484,20 +3236,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3524,20 +3273,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3564,20 +3310,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3604,20 +3347,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3644,20 +3384,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3684,20 +3421,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3724,20 +3458,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3764,20 +3495,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3804,20 +3532,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3844,20 +3569,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3884,20 +3606,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3924,20 +3643,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3964,20 +3680,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4004,20 +3717,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4044,20 +3754,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4084,20 +3791,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4124,20 +3828,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4164,20 +3865,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4204,20 +3902,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4244,20 +3939,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4284,20 +3976,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4324,20 +4013,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4364,20 +4050,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4404,20 +4087,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4444,20 +4124,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4484,20 +4161,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4524,20 +4198,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4564,20 +4235,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4604,20 +4272,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4644,20 +4309,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4684,20 +4346,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4724,20 +4383,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4764,20 +4420,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4804,20 +4457,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4844,20 +4494,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4884,20 +4531,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4924,20 +4568,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4964,20 +4605,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5004,20 +4642,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5044,20 +4679,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5084,20 +4716,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5124,20 +4753,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5164,20 +4790,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5204,20 +4827,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5244,20 +4864,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5284,20 +4901,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5324,20 +4938,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5364,20 +4975,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5404,20 +5012,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5444,20 +5049,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5484,20 +5086,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5524,20 +5123,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5564,20 +5160,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5604,20 +5197,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5644,20 +5234,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5684,20 +5271,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5724,20 +5308,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5764,20 +5345,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5804,20 +5382,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5844,20 +5419,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5884,20 +5456,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5924,20 +5493,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5964,20 +5530,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6004,20 +5567,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6042,22 +5602,17 @@
         <v>21493.55490191999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6084,20 +5639,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6124,20 +5672,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6164,20 +5705,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6204,20 +5738,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6244,20 +5771,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6284,20 +5804,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6324,20 +5837,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6364,20 +5870,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6404,20 +5903,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6444,20 +5936,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6484,20 +5969,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6524,20 +6002,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6564,20 +6035,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6602,22 +6066,15 @@
         <v>25384.08280191999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6642,22 +6099,15 @@
         <v>25588.08820191999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6684,20 +6134,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6724,20 +6167,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6764,20 +6200,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6804,20 +6233,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6844,20 +6266,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6884,20 +6299,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6924,20 +6332,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6964,20 +6365,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7004,18 +6398,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L165" t="n">
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7042,16 +6431,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7078,16 +6464,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7112,18 +6495,15 @@
         <v>26020.09210191998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7148,18 +6528,15 @@
         <v>27010.09210191998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7184,18 +6561,15 @@
         <v>27010.09210191998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7220,18 +6594,15 @@
         <v>27207.07530191998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7256,18 +6627,15 @@
         <v>26117.07530191998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7292,18 +6660,15 @@
         <v>25961.07530191998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7328,18 +6693,15 @@
         <v>26441.07530191998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7364,18 +6726,15 @@
         <v>26930.90240191998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7400,18 +6759,15 @@
         <v>26830.90240191998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7436,18 +6792,15 @@
         <v>26896.69040191998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7472,18 +6825,15 @@
         <v>26838.89040191998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7508,18 +6858,15 @@
         <v>26138.89040191998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7544,18 +6891,15 @@
         <v>26411.09040191998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7580,18 +6924,15 @@
         <v>25826.35840191998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7616,18 +6957,15 @@
         <v>26517.35840191998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7652,18 +6990,15 @@
         <v>25692.35840191998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7688,18 +7023,15 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7724,18 +7056,15 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7760,18 +7089,15 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7796,18 +7122,15 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7834,16 +7157,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7870,16 +7190,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7906,16 +7223,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7942,16 +7256,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7978,16 +7289,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8014,16 +7322,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8050,16 +7355,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8086,16 +7388,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8122,16 +7421,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8158,16 +7454,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8194,16 +7487,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8230,16 +7520,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8266,16 +7553,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8302,16 +7586,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8338,16 +7619,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8374,16 +7652,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8410,16 +7685,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8446,16 +7718,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8482,16 +7751,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8518,16 +7784,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8554,16 +7817,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8590,16 +7850,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8626,16 +7883,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8662,16 +7916,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8698,16 +7949,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8734,16 +7982,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8770,16 +8015,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8806,16 +8048,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8842,16 +8081,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8878,16 +8114,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8914,16 +8147,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8950,16 +8180,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8986,16 +8213,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9022,16 +8246,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9058,16 +8279,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9094,16 +8312,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9130,16 +8345,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9166,16 +8378,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9202,16 +8411,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9238,16 +8444,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9274,16 +8477,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9310,16 +8510,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9346,16 +8543,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9382,16 +8576,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9418,16 +8609,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9454,16 +8642,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9490,16 +8675,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9526,16 +8708,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9562,16 +8741,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9598,16 +8774,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9634,16 +8807,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9670,16 +8840,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9706,16 +8873,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9742,16 +8906,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9778,16 +8939,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9814,16 +8972,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9850,16 +9005,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9886,16 +9038,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9922,16 +9071,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9958,16 +9104,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9994,16 +9137,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10030,16 +9170,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10066,16 +9203,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10102,16 +9236,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10138,16 +9269,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10174,16 +9302,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10210,16 +9335,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10246,16 +9368,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10282,16 +9401,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10318,16 +9434,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10354,16 +9467,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10390,16 +9500,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10424,18 +9531,15 @@
         <v>24812.52704523999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10460,18 +9564,15 @@
         <v>24515.03184523998</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10496,18 +9597,15 @@
         <v>25564.41044523998</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10534,16 +9632,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10568,18 +9663,15 @@
         <v>25214.41044523998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10606,16 +9698,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10642,16 +9731,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10678,16 +9764,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10714,16 +9797,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10750,16 +9830,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10786,16 +9863,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10822,16 +9896,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10858,16 +9929,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10894,16 +9962,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10930,16 +9995,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10966,16 +10028,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11002,16 +10061,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11038,16 +10094,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11074,16 +10127,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11110,16 +10160,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11146,16 +10193,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11182,16 +10226,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11218,16 +10259,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11254,16 +10292,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11290,16 +10325,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11326,16 +10358,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11362,16 +10391,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11398,16 +10424,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11432,18 +10455,15 @@
         <v>27542.42114523998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11468,18 +10488,15 @@
         <v>26872.42114523998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11504,18 +10521,15 @@
         <v>27232.42114523998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11540,18 +10554,15 @@
         <v>27199.52114523998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11576,18 +10587,15 @@
         <v>26941.52114523998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11614,16 +10622,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11650,16 +10655,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11686,16 +10688,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11722,16 +10721,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11758,16 +10754,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11794,16 +10787,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11830,16 +10820,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11866,16 +10853,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11902,16 +10886,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11938,16 +10919,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11972,18 +10950,15 @@
         <v>27903.45654523998</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12010,16 +10985,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12046,16 +11018,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12082,16 +11051,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12118,16 +11084,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12154,16 +11117,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12190,16 +11150,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12226,16 +11183,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12262,16 +11216,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12298,16 +11249,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12334,16 +11282,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12370,16 +11315,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12406,16 +11348,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12442,16 +11381,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12478,16 +11414,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12514,16 +11447,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12550,16 +11480,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12586,16 +11513,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12622,16 +11546,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12658,16 +11579,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12694,16 +11612,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12730,16 +11645,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12766,16 +11678,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12802,16 +11711,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12838,16 +11744,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12874,16 +11777,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12910,16 +11810,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12946,16 +11843,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12982,16 +11876,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13018,16 +11909,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13054,16 +11942,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13090,16 +11975,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13126,16 +12008,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13162,16 +12041,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13198,16 +12074,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13234,16 +12107,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13270,16 +12140,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13306,16 +12173,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13342,16 +12206,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13378,16 +12239,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13414,16 +12272,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13450,16 +12305,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13486,16 +12338,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13522,16 +12371,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13558,16 +12404,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13594,16 +12437,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13630,16 +12470,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13666,16 +12503,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13702,16 +12536,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13738,16 +12569,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13774,16 +12602,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13810,16 +12635,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13846,16 +12668,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13882,16 +12701,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13918,16 +12734,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13954,16 +12767,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13990,16 +12800,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -14026,16 +12833,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -14062,16 +12866,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -14098,16 +12899,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -14134,16 +12932,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -14168,18 +12963,15 @@
         <v>31216.67761736999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14204,20 +12996,17 @@
         <v>31056.67761736999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest BHP.xlsx
+++ b/BackTest/2019-11-01 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2101.90917225</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2101.90917225</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1211</v>
@@ -523,11 +523,9 @@
         <v>2691.15617225</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -562,11 +560,9 @@
         <v>2694.44767019</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +597,9 @@
         <v>2699.54939291</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +634,9 @@
         <v>2691.54939291</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +671,9 @@
         <v>2691.54939291</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -829,9 +819,11 @@
         <v>3809.87478321</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1219</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -2089,7 +2081,9 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1238</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2126,7 +2120,9 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1235</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2163,7 +2159,9 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1238</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2198,7 +2196,7 @@
         <v>8850.606599339997</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2235,7 +2233,7 @@
         <v>9759.606599339997</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2272,7 +2270,7 @@
         <v>9615.065499339997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2309,7 +2307,7 @@
         <v>9071.642899339997</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2383,7 +2381,7 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2494,7 +2492,7 @@
         <v>8788.457899339999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2531,7 +2529,7 @@
         <v>9659.457899339999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2568,7 +2566,7 @@
         <v>10269.45789934</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2605,7 +2603,7 @@
         <v>10269.70029934</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2642,7 +2640,7 @@
         <v>10204.10029934</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -5602,16 +5600,18 @@
         <v>21493.55490191999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
       <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -5641,7 +5641,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5674,7 +5678,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5707,7 +5715,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5740,7 +5752,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5773,7 +5789,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +5826,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5839,7 +5863,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +5900,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5905,7 +5937,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5938,7 +5974,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5971,7 +6011,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6004,7 +6048,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6037,7 +6085,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +6118,15 @@
         <v>25384.08280191999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6099,11 +6155,15 @@
         <v>25588.08820191999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6136,7 +6196,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6169,7 +6233,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6202,7 +6270,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6235,7 +6307,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6344,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6301,7 +6381,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6334,7 +6418,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6367,7 +6455,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6400,7 +6492,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6433,7 +6529,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6466,7 +6566,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6599,15 @@
         <v>26020.09210191998</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +6636,15 @@
         <v>27010.09210191998</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +6673,15 @@
         <v>27010.09210191998</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6594,14 +6710,16 @@
         <v>27207.07530191998</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -6627,7 +6745,7 @@
         <v>26117.07530191998</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6660,7 +6778,7 @@
         <v>25961.07530191998</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6693,7 +6811,7 @@
         <v>26441.07530191998</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6726,7 +6844,7 @@
         <v>26930.90240191998</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6759,7 +6877,7 @@
         <v>26830.90240191998</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6792,7 +6910,7 @@
         <v>26896.69040191998</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6825,7 +6943,7 @@
         <v>26838.89040191998</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6858,7 +6976,7 @@
         <v>26138.89040191998</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6891,7 +7009,7 @@
         <v>26411.09040191998</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6924,7 +7042,7 @@
         <v>25826.35840191998</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6957,7 +7075,7 @@
         <v>26517.35840191998</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6990,7 +7108,7 @@
         <v>25692.35840191998</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7023,7 +7141,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7056,7 +7174,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7089,7 +7207,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7122,7 +7240,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7155,7 +7273,7 @@
         <v>25554.65840191998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7188,7 +7306,7 @@
         <v>25254.65840191998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7221,7 +7339,7 @@
         <v>24954.65840191998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7254,7 +7372,7 @@
         <v>24722.65840191998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7287,7 +7405,7 @@
         <v>24538.65840191998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7320,7 +7438,7 @@
         <v>23661.65840191998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7353,7 +7471,7 @@
         <v>23222.65840191998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7386,7 +7504,7 @@
         <v>25658.65840191998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7419,7 +7537,7 @@
         <v>25576.63460191998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7452,7 +7570,7 @@
         <v>25073.79224523998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7485,7 +7603,7 @@
         <v>25100.19224523998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7518,7 +7636,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7551,7 +7669,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7584,7 +7702,7 @@
         <v>24618.69224523998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7617,7 +7735,7 @@
         <v>24192.69224523998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7650,7 +7768,7 @@
         <v>24088.96874523998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7782,7 +7900,7 @@
         <v>24147.96874523998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7815,7 +7933,7 @@
         <v>22576.49334523999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7848,7 +7966,7 @@
         <v>22773.49334523999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7881,7 +7999,7 @@
         <v>21739.01794523999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7914,7 +8032,7 @@
         <v>21820.45854523999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7947,7 +8065,7 @@
         <v>21590.45854523999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7980,7 +8098,7 @@
         <v>21875.05854523999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8013,7 +8131,7 @@
         <v>22320.95854523999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8046,7 +8164,7 @@
         <v>21620.95854523999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8079,7 +8197,7 @@
         <v>21566.35854523999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8112,7 +8230,7 @@
         <v>21522.45854523999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8145,7 +8263,7 @@
         <v>21522.45854523999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8178,7 +8296,7 @@
         <v>21348.45854523999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8211,7 +8329,7 @@
         <v>21750.91754523999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8244,7 +8362,7 @@
         <v>21856.25674523999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8277,7 +8395,7 @@
         <v>21910.85674523998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8310,7 +8428,7 @@
         <v>21910.85674523998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8343,7 +8461,7 @@
         <v>21866.95674523998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8409,7 +8527,7 @@
         <v>21822.00924523998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8442,7 +8560,7 @@
         <v>21822.00924523998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8475,7 +8593,7 @@
         <v>22109.00924523998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9531,7 +9649,7 @@
         <v>24812.52704523999</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9564,7 +9682,7 @@
         <v>24515.03184523998</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9597,7 +9715,7 @@
         <v>25564.41044523998</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9663,7 +9781,7 @@
         <v>25214.41044523998</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9828,7 +9946,7 @@
         <v>26787.29054523999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9927,7 +10045,7 @@
         <v>23955.39674523998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9993,7 +10111,7 @@
         <v>23884.39674523998</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10026,7 +10144,7 @@
         <v>24884.39674523998</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10059,7 +10177,7 @@
         <v>25574.39674523998</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10125,7 +10243,7 @@
         <v>26628.39674523998</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10158,7 +10276,7 @@
         <v>26622.02224523998</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10191,7 +10309,7 @@
         <v>26122.02224523998</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10224,7 +10342,7 @@
         <v>26549.02224523998</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10257,7 +10375,7 @@
         <v>26618.02224523998</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10290,7 +10408,7 @@
         <v>26671.16274523998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10323,7 +10441,7 @@
         <v>26671.54364523998</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10356,7 +10474,7 @@
         <v>26656.40114523998</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10422,7 +10540,7 @@
         <v>27572.72114523998</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10455,7 +10573,7 @@
         <v>27542.42114523998</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10488,7 +10606,7 @@
         <v>26872.42114523998</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10521,7 +10639,7 @@
         <v>27232.42114523998</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10554,7 +10672,7 @@
         <v>27199.52114523998</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10587,7 +10705,7 @@
         <v>26941.52114523998</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10620,7 +10738,7 @@
         <v>26271.86764523998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10653,7 +10771,7 @@
         <v>26271.86764523998</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10686,7 +10804,7 @@
         <v>27140.46764523998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10719,7 +10837,7 @@
         <v>27100.86764523998</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10818,7 +10936,7 @@
         <v>28121.05654523998</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10851,7 +10969,7 @@
         <v>28081.45654523998</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10884,7 +11002,7 @@
         <v>27059.45654523998</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10917,7 +11035,7 @@
         <v>26859.45654523998</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10950,7 +11068,7 @@
         <v>27903.45654523998</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10983,7 +11101,7 @@
         <v>28253.45654523998</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11016,7 +11134,7 @@
         <v>28253.45654523998</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11049,7 +11167,7 @@
         <v>27561.06564523999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11082,7 +11200,7 @@
         <v>27361.06564523999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11115,7 +11233,7 @@
         <v>27651.06564523999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11148,7 +11266,7 @@
         <v>27438.62624523999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11181,7 +11299,7 @@
         <v>27410.03854523999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11214,7 +11332,7 @@
         <v>28232.65084523999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11247,7 +11365,7 @@
         <v>27732.65084523999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11280,7 +11398,7 @@
         <v>27678.45084523999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11313,7 +11431,7 @@
         <v>27676.13234523998</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11346,7 +11464,7 @@
         <v>27490.13234523998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11379,7 +11497,7 @@
         <v>27639.08874523998</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11412,7 +11530,7 @@
         <v>27971.88874523998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11445,7 +11563,7 @@
         <v>28971.88874523998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11478,7 +11596,7 @@
         <v>29662.88874523998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11511,7 +11629,7 @@
         <v>30227.88874523998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11544,7 +11662,7 @@
         <v>30200.78874523998</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11577,7 +11695,7 @@
         <v>30197.78874523998</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11643,7 +11761,7 @@
         <v>30199.62703967998</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11676,7 +11794,7 @@
         <v>29152.87183967998</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11709,7 +11827,7 @@
         <v>29150.44661736998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11742,7 +11860,7 @@
         <v>29150.44661736998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11775,7 +11893,7 @@
         <v>29556.44661736998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11808,7 +11926,7 @@
         <v>28803.36971736998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11841,7 +11959,7 @@
         <v>29592.36971736998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11874,7 +11992,7 @@
         <v>29820.36971736998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11907,7 +12025,7 @@
         <v>29887.06971736998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11940,7 +12058,7 @@
         <v>29060.06971736998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11973,7 +12091,7 @@
         <v>29764.06971736998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12006,7 +12124,7 @@
         <v>29764.06971736998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12039,7 +12157,7 @@
         <v>29764.06971736998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12732,7 +12850,7 @@
         <v>31041.07761736999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12831,7 +12949,7 @@
         <v>31988.07761736999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12897,7 +13015,7 @@
         <v>31649.97761736999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12930,7 +13048,7 @@
         <v>31616.67761736999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12963,7 +13081,7 @@
         <v>31216.67761736999</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12996,7 +13114,7 @@
         <v>31056.67761736999</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13007,6 +13125,6 @@
       <c r="M365" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest BHP.xlsx
+++ b/BackTest/2019-11-01 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -523,9 +523,11 @@
         <v>2691.15617225</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1211</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,9 +562,11 @@
         <v>2694.44767019</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1216</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -597,9 +601,11 @@
         <v>2699.54939291</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1217</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -634,9 +640,11 @@
         <v>2691.54939291</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1219</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -745,9 +753,11 @@
         <v>2948.87478321</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1215</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -819,11 +829,9 @@
         <v>3809.87478321</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1080,18 +1088,16 @@
         <v>7707.29518321</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1117,15 +1123,11 @@
         <v>7707.29518321</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,15 +1156,11 @@
         <v>9072.895183209999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1191,15 +1189,11 @@
         <v>9572.895183209999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1228,15 +1222,11 @@
         <v>9744.19778321</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1265,15 +1255,11 @@
         <v>9680.09778321</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,15 +1288,11 @@
         <v>9645.69778321</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1339,15 +1321,11 @@
         <v>9675.497783209999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1376,15 +1354,11 @@
         <v>9619.411183209999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1413,15 +1387,11 @@
         <v>9697.724583209998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1450,15 +1420,11 @@
         <v>9698.004283209997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1487,15 +1453,11 @@
         <v>9679.885683209997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1528,11 +1490,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1523,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1602,11 +1556,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1589,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1622,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1713,11 +1655,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1750,11 +1688,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1721,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1824,11 +1754,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1861,11 +1787,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1898,11 +1820,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +1853,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1886,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2009,11 +1919,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2042,15 +1948,11 @@
         <v>8660.306599339998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2079,17 +1981,11 @@
         <v>8652.306599339998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1238</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,17 +2014,11 @@
         <v>9749.606599339997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1235</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2157,17 +2047,11 @@
         <v>10460.60659934</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1238</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2084,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2233,15 +2113,11 @@
         <v>9759.606599339997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,15 +2146,11 @@
         <v>9615.065499339997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,15 +2179,11 @@
         <v>9071.642899339997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2216,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,15 +2245,11 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,15 +2278,11 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2315,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2348,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2381,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2414,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2447,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2480,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2513,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2546,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2579,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2612,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2645,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2678,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2711,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2744,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2777,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2810,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2843,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3088,11 +2876,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +2909,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +2942,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +2975,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +3008,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +3041,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +3074,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3347,11 +3107,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +3140,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3173,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3458,11 +3206,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3495,11 +3239,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3532,11 +3272,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3305,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3338,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3371,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3404,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3717,11 +3437,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3470,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3503,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3536,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3865,11 +3569,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3602,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +3635,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3976,11 +3668,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +3701,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +3734,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3767,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +3800,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4161,11 +3833,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +3866,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +3899,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4272,11 +3932,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +3965,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4346,11 +3998,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4031,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +4064,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4457,11 +4097,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4494,11 +4130,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4531,11 +4163,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4568,11 +4196,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4605,11 +4229,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4262,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4295,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4716,11 +4328,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +4361,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4394,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4427,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4864,11 +4460,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4901,11 +4493,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4526,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +4559,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +4592,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5049,11 +4625,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5086,11 +4658,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +4691,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +4724,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5197,11 +4757,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +4790,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +4823,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +4856,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5345,11 +4889,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +4922,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +4955,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5456,11 +4988,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5493,11 +5021,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +5054,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5087,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5120,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5153,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5678,11 +5186,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5715,11 +5219,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5252,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +5285,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5826,11 +5318,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5351,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5384,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5937,11 +5417,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +5450,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5483,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6048,11 +5516,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +5549,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +5582,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +5615,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +5648,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6233,11 +5681,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +5714,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +5747,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +5780,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +5813,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +5846,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +5879,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6492,11 +5912,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6529,11 +5945,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6566,11 +5978,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6603,11 +6011,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6044,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +6077,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6710,16 +6106,14 @@
         <v>27207.07530191998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
       <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -6778,7 +6172,7 @@
         <v>25961.07530191998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6844,7 +6238,7 @@
         <v>26930.90240191998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6877,7 +6271,7 @@
         <v>26830.90240191998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6910,7 +6304,7 @@
         <v>26896.69040191998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6943,7 +6337,7 @@
         <v>26838.89040191998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6976,7 +6370,7 @@
         <v>26138.89040191998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7009,7 +6403,7 @@
         <v>26411.09040191998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7042,7 +6436,7 @@
         <v>25826.35840191998</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7075,7 +6469,7 @@
         <v>26517.35840191998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7108,7 +6502,7 @@
         <v>25692.35840191998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7141,7 +6535,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7174,7 +6568,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7207,7 +6601,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7240,7 +6634,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7273,7 +6667,7 @@
         <v>25554.65840191998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7306,7 +6700,7 @@
         <v>25254.65840191998</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7339,7 +6733,7 @@
         <v>24954.65840191998</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7372,7 +6766,7 @@
         <v>24722.65840191998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7405,7 +6799,7 @@
         <v>24538.65840191998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7438,7 +6832,7 @@
         <v>23661.65840191998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7471,7 +6865,7 @@
         <v>23222.65840191998</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7504,7 +6898,7 @@
         <v>25658.65840191998</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7537,7 +6931,7 @@
         <v>25576.63460191998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7570,7 +6964,7 @@
         <v>25073.79224523998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7603,7 +6997,7 @@
         <v>25100.19224523998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7636,7 +7030,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7669,7 +7063,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7702,7 +7096,7 @@
         <v>24618.69224523998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7735,7 +7129,7 @@
         <v>24192.69224523998</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7768,7 +7162,7 @@
         <v>24088.96874523998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7900,7 +7294,7 @@
         <v>24147.96874523998</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7933,7 +7327,7 @@
         <v>22576.49334523999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7966,7 +7360,7 @@
         <v>22773.49334523999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7999,7 +7393,7 @@
         <v>21739.01794523999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8032,7 +7426,7 @@
         <v>21820.45854523999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8065,7 +7459,7 @@
         <v>21590.45854523999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8098,7 +7492,7 @@
         <v>21875.05854523999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8131,7 +7525,7 @@
         <v>22320.95854523999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8164,7 +7558,7 @@
         <v>21620.95854523999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8197,7 +7591,7 @@
         <v>21566.35854523999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8230,7 +7624,7 @@
         <v>21522.45854523999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8263,7 +7657,7 @@
         <v>21522.45854523999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8296,7 +7690,7 @@
         <v>21348.45854523999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8329,7 +7723,7 @@
         <v>21750.91754523999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8362,7 +7756,7 @@
         <v>21856.25674523999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8395,7 +7789,7 @@
         <v>21910.85674523998</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8428,7 +7822,7 @@
         <v>21910.85674523998</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8461,7 +7855,7 @@
         <v>21866.95674523998</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8527,7 +7921,7 @@
         <v>21822.00924523998</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8560,7 +7954,7 @@
         <v>21822.00924523998</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8593,7 +7987,7 @@
         <v>22109.00924523998</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9715,7 +9109,7 @@
         <v>25564.41044523998</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9781,7 +9175,7 @@
         <v>25214.41044523998</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9946,7 +9340,7 @@
         <v>26787.29054523999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10045,7 +9439,7 @@
         <v>23955.39674523998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10111,7 +9505,7 @@
         <v>23884.39674523998</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10144,7 +9538,7 @@
         <v>24884.39674523998</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10177,7 +9571,7 @@
         <v>25574.39674523998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10243,7 +9637,7 @@
         <v>26628.39674523998</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10276,7 +9670,7 @@
         <v>26622.02224523998</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10309,7 +9703,7 @@
         <v>26122.02224523998</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10342,7 +9736,7 @@
         <v>26549.02224523998</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10375,7 +9769,7 @@
         <v>26618.02224523998</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10408,7 +9802,7 @@
         <v>26671.16274523998</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10441,7 +9835,7 @@
         <v>26671.54364523998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10474,7 +9868,7 @@
         <v>26656.40114523998</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10540,7 +9934,7 @@
         <v>27572.72114523998</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10573,7 +9967,7 @@
         <v>27542.42114523998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10606,7 +10000,7 @@
         <v>26872.42114523998</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10639,7 +10033,7 @@
         <v>27232.42114523998</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10672,7 +10066,7 @@
         <v>27199.52114523998</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10705,7 +10099,7 @@
         <v>26941.52114523998</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10738,7 +10132,7 @@
         <v>26271.86764523998</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10771,7 +10165,7 @@
         <v>26271.86764523998</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10804,7 +10198,7 @@
         <v>27140.46764523998</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10837,7 +10231,7 @@
         <v>27100.86764523998</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10936,7 +10330,7 @@
         <v>28121.05654523998</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10969,7 +10363,7 @@
         <v>28081.45654523998</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11002,7 +10396,7 @@
         <v>27059.45654523998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11035,7 +10429,7 @@
         <v>26859.45654523998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11068,7 +10462,7 @@
         <v>27903.45654523998</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11101,7 +10495,7 @@
         <v>28253.45654523998</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11134,7 +10528,7 @@
         <v>28253.45654523998</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11167,7 +10561,7 @@
         <v>27561.06564523999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11200,7 +10594,7 @@
         <v>27361.06564523999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11233,7 +10627,7 @@
         <v>27651.06564523999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11266,7 +10660,7 @@
         <v>27438.62624523999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11299,7 +10693,7 @@
         <v>27410.03854523999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11332,7 +10726,7 @@
         <v>28232.65084523999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11365,7 +10759,7 @@
         <v>27732.65084523999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11398,7 +10792,7 @@
         <v>27678.45084523999</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11431,7 +10825,7 @@
         <v>27676.13234523998</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11464,7 +10858,7 @@
         <v>27490.13234523998</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11497,7 +10891,7 @@
         <v>27639.08874523998</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11530,7 +10924,7 @@
         <v>27971.88874523998</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11563,7 +10957,7 @@
         <v>28971.88874523998</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11596,7 +10990,7 @@
         <v>29662.88874523998</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11629,7 +11023,7 @@
         <v>30227.88874523998</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11662,7 +11056,7 @@
         <v>30200.78874523998</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11695,7 +11089,7 @@
         <v>30197.78874523998</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11761,7 +11155,7 @@
         <v>30199.62703967998</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11794,7 +11188,7 @@
         <v>29152.87183967998</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11827,7 +11221,7 @@
         <v>29150.44661736998</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11860,7 +11254,7 @@
         <v>29150.44661736998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11893,7 +11287,7 @@
         <v>29556.44661736998</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11926,7 +11320,7 @@
         <v>28803.36971736998</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11959,7 +11353,7 @@
         <v>29592.36971736998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11992,7 +11386,7 @@
         <v>29820.36971736998</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12025,7 +11419,7 @@
         <v>29887.06971736998</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12058,7 +11452,7 @@
         <v>29060.06971736998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12091,7 +11485,7 @@
         <v>29764.06971736998</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12124,7 +11518,7 @@
         <v>29764.06971736998</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12157,7 +11551,7 @@
         <v>29764.06971736998</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12850,7 +12244,7 @@
         <v>31041.07761736999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12949,7 +12343,7 @@
         <v>31988.07761736999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13015,7 +12409,7 @@
         <v>31649.97761736999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13048,7 +12442,7 @@
         <v>31616.67761736999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13081,7 +12475,7 @@
         <v>31216.67761736999</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13114,7 +12508,7 @@
         <v>31056.67761736999</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13125,6 +12519,6 @@
       <c r="M365" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest BHP.xlsx
+++ b/BackTest/2019-11-01 BackTest BHP.xlsx
@@ -679,9 +679,11 @@
         <v>2691.54939291</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1217</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -716,9 +718,11 @@
         <v>2553.54939291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1217</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -792,9 +796,11 @@
         <v>3118.87478321</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1217</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -829,9 +835,11 @@
         <v>3809.87478321</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1219</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -866,9 +874,11 @@
         <v>4379.87478321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1222</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -903,9 +913,11 @@
         <v>4594.87478321</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1224</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -940,9 +952,11 @@
         <v>4594.87478321</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1226</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -977,9 +991,11 @@
         <v>5660.87478321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1226</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1014,9 +1030,11 @@
         <v>6776.87478321</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1228</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1051,9 +1069,11 @@
         <v>7572.87478321</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1235</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1088,16 +1108,20 @@
         <v>7707.29518321</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1240</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1123,11 +1147,15 @@
         <v>7707.29518321</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1184,15 @@
         <v>9072.895183209999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,11 +1221,15 @@
         <v>9572.895183209999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1222,11 +1258,15 @@
         <v>9744.19778321</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1255,11 +1295,15 @@
         <v>9680.09778321</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1288,11 +1332,15 @@
         <v>9645.69778321</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1321,11 +1369,15 @@
         <v>9675.497783209999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1354,11 +1406,15 @@
         <v>9619.411183209999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1443,15 @@
         <v>9697.724583209998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1420,11 +1480,15 @@
         <v>9698.004283209997</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1453,11 +1517,15 @@
         <v>9679.885683209997</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1490,7 +1558,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1523,7 +1595,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1556,7 +1632,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1589,7 +1669,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1622,7 +1706,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1655,7 +1743,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1688,7 +1780,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1721,7 +1817,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1754,7 +1854,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1787,7 +1891,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1820,7 +1928,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1853,7 +1965,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1886,7 +2002,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1919,7 +2039,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1948,11 +2072,15 @@
         <v>8660.306599339998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +2109,15 @@
         <v>8652.306599339998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2014,11 +2146,15 @@
         <v>9749.606599339997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2047,11 +2183,15 @@
         <v>10460.60659934</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2084,7 +2224,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2113,11 +2257,15 @@
         <v>9759.606599339997</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +2294,15 @@
         <v>9615.065499339997</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2179,11 +2331,15 @@
         <v>9071.642899339997</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2216,7 +2372,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2245,11 +2405,15 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2442,15 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2315,7 +2483,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2520,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2381,7 +2557,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2414,7 +2594,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2447,7 +2631,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2480,7 +2668,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2513,7 +2705,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2546,7 +2742,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2579,7 +2779,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2612,7 +2816,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2645,7 +2853,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2678,7 +2890,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2711,7 +2927,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2744,7 +2964,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2777,7 +3001,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2810,7 +3038,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2843,7 +3075,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2876,7 +3112,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2909,7 +3149,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2942,7 +3186,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2975,7 +3223,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3008,7 +3260,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3041,7 +3297,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3074,7 +3334,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3107,7 +3371,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3140,7 +3408,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3173,7 +3445,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3206,7 +3482,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3239,7 +3519,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3272,7 +3556,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3305,7 +3593,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3338,7 +3630,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3371,7 +3667,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3404,7 +3704,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3437,7 +3741,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3470,7 +3778,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3815,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3536,7 +3852,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3569,7 +3889,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3602,7 +3926,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3635,7 +3963,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3668,7 +4000,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3701,7 +4037,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3734,7 +4074,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3767,7 +4111,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3800,7 +4148,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3833,7 +4185,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3866,7 +4222,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3899,7 +4259,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3932,7 +4296,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3965,7 +4333,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3998,7 +4370,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4031,7 +4407,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4064,7 +4444,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4097,7 +4481,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4130,7 +4518,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4163,7 +4555,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4196,7 +4592,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4229,7 +4629,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4262,7 +4666,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4295,7 +4703,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4328,7 +4740,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4361,7 +4777,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4394,7 +4814,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4427,7 +4851,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4460,7 +4888,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4493,7 +4925,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4526,7 +4962,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4559,7 +4999,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4592,7 +5036,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4625,7 +5073,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +5110,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4691,7 +5147,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4724,7 +5184,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4757,7 +5221,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4790,7 +5258,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4823,7 +5295,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4856,7 +5332,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4889,7 +5369,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4922,7 +5406,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +5443,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4988,7 +5480,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5021,7 +5517,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5054,7 +5554,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5087,7 +5591,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5120,7 +5628,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5153,7 +5665,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5186,7 +5702,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5219,7 +5739,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5252,7 +5776,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5285,7 +5813,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5318,7 +5850,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5351,7 +5887,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5384,7 +5924,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5417,7 +5961,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5450,7 +5998,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5483,7 +6035,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5516,7 +6072,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5549,7 +6109,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5582,7 +6146,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5615,7 +6183,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5648,7 +6220,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5681,7 +6257,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5714,7 +6294,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5747,7 +6331,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5780,7 +6368,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6405,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5846,7 +6442,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5879,7 +6479,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5912,7 +6516,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5945,7 +6553,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5978,7 +6590,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6011,7 +6627,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6044,7 +6664,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6073,14 +6697,16 @@
         <v>27010.09210191998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6106,7 +6732,7 @@
         <v>27207.07530191998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6139,7 +6765,7 @@
         <v>26117.07530191998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6172,7 +6798,7 @@
         <v>25961.07530191998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6238,7 +6864,7 @@
         <v>26930.90240191998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6271,7 +6897,7 @@
         <v>26830.90240191998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6304,7 +6930,7 @@
         <v>26896.69040191998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6337,7 +6963,7 @@
         <v>26838.89040191998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6370,7 +6996,7 @@
         <v>26138.89040191998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6403,7 +7029,7 @@
         <v>26411.09040191998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6436,7 +7062,7 @@
         <v>25826.35840191998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6469,7 +7095,7 @@
         <v>26517.35840191998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6502,7 +7128,7 @@
         <v>25692.35840191998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6535,7 +7161,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6568,7 +7194,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6601,7 +7227,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6634,7 +7260,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6667,7 +7293,7 @@
         <v>25554.65840191998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6700,7 +7326,7 @@
         <v>25254.65840191998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6733,7 +7359,7 @@
         <v>24954.65840191998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6766,7 +7392,7 @@
         <v>24722.65840191998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6799,7 +7425,7 @@
         <v>24538.65840191998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6832,7 +7458,7 @@
         <v>23661.65840191998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6865,7 +7491,7 @@
         <v>23222.65840191998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6898,7 +7524,7 @@
         <v>25658.65840191998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6931,7 +7557,7 @@
         <v>25576.63460191998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6964,7 +7590,7 @@
         <v>25073.79224523998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6997,7 +7623,7 @@
         <v>25100.19224523998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7030,7 +7656,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7063,7 +7689,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7096,7 +7722,7 @@
         <v>24618.69224523998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
